--- a/50kHz measurments.xlsx
+++ b/50kHz measurments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmall1\Documents\GitHub\PROJ324_SK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiera\Documents\GitHub\PROJ324_SK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C46B20C-64C2-4FF8-A95A-42AB9CA66A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80135C30-E0FE-4503-9CA4-FEA0ECCB4F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -72,6 +83,5671 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>291.54500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349.85399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>408.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466.47199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>524.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>583.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>641.399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>699.70799999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>758.01700000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>816.327</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>874.63599999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>932.94500000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>991.25400000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1049.5630000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1107.8720000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1166.181</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1224.49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1282.799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1341.1079999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1399.4169999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1457.7260000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1516.0350000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1574.3440000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1632.653</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1690.962</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1749.271</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1807.58</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1865.8889999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1924.1980000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1982.5070000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2040.816</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2099.125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2157.4340000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2215.7429999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2274.0520000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2332.3620000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2390.6709999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2448.98</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2507.2890000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2565.598</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2623.9070000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>512.16200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538.505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>603.24199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>663.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>719.72699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>776.71699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>828.404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>881.37400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>954.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1022.293</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1168.0909999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1243.192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300.3430000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1350.595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1416.5050000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1450.424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1528.6969999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1596.92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1650.2719999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1743.4749999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1802.182</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1872.171</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1913.838</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1998.5450000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011.222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2068.3040000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2130.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2224.8679999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2267.3229999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2350.261</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2448.3679999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2476.7779999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2542.4229999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2573.261</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2631.1210000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2691.0709999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2759.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2836.4340000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2909.1419999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3001.8789999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7ABA-42C1-A851-04FD31560246}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187952672"/>
+        <c:axId val="196245136"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$5:$C$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="41"/>
+                      <c:pt idx="0">
+                        <c:v>220.617</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>188.651</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>195.079</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>196.548</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>194.946</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>193.627</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>187.005</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>181.666</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>196.063</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>205.966</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>225.989</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>235.146</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>251.938</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>250.78</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>242.723</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>250.324</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>225.934</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>245.898</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>255.812</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>250.855</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>285.749</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>286.147</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>297.827</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>281.185</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>307.583</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>261.951</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>260.724</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>264.861</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>300.67</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>284.816</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>309.445</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>349.243</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>319.344</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>326.68</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>299.209</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>298.759</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>300.4</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>310.032</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>329.145</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>343.544</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>377.972</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$5:$C$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="41"/>
+                      <c:pt idx="0">
+                        <c:v>220.61700000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>188.65100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>195.07899999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>196.548</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>194.94600000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>193.62699999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>187.005</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>181.66600000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>196.06299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>205.96600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>225.98900000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>235.14599999999984</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>251.93799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>250.77999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>242.72299999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>250.32400000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>225.93399999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>245.89799999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>255.81200000000013</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>250.85500000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>285.7489999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>286.14699999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>297.827</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>281.18499999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>307.58300000000008</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>261.95100000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>260.72400000000016</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>264.8610000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>300.66999999999985</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>284.8159999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>309.44499999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>349.24299999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>319.3439999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>326.67999999999984</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>299.20899999999983</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>298.75900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>300.40000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>310.03200000000015</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>329.14499999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>343.54399999999987</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>377.97199999999975</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7ABA-42C1-A851-04FD31560246}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="187952672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196245136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="196245136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187952672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>291.54500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349.85399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>408.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>466.47199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>524.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>583.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>641.399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>699.70799999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>758.01700000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>816.327</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>874.63599999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>932.94500000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>991.25400000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1049.5630000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1107.8720000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1166.181</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1224.49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1282.799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1341.1079999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1399.4169999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1457.7260000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1516.0350000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1574.3440000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1632.653</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1690.962</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1749.271</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1807.58</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1865.8889999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1924.1980000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1982.5070000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2040.816</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2099.125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2157.4340000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2215.7429999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2274.0520000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2332.3620000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2390.6709999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2448.98</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2507.2890000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2565.598</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2623.9070000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-355B-46FF-8026-B64543A85EE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="189904480"/>
+        <c:axId val="188805840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="189904480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188805840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="188805840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189904480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$5:$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>512.16200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538.505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>603.24199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>663.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>719.72699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>776.71699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>828.404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>881.37400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>954.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1022.293</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1168.0909999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1243.192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300.3430000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1350.595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1416.5050000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1450.424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1528.6969999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1596.92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1650.2719999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1743.4749999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1802.182</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1872.171</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1913.838</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1998.5450000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011.222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2068.3040000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2130.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2224.8679999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2267.3229999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2350.261</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2448.3679999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2476.7779999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2542.4229999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2573.261</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2631.1210000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2691.0709999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2759.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2836.4340000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2909.1419999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3001.8789999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1486-40EC-9A15-125580EC40BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>512.16200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538.505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>603.24199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>663.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>719.72699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>776.71699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>828.404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>881.37400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>954.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1022.293</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1168.0909999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1243.192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300.3430000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1350.595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1416.5050000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1450.424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1528.6969999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1596.92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1650.2719999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1743.4749999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1802.182</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1872.171</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1913.838</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1998.5450000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011.222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2068.3040000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2130.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2224.8679999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2267.3229999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2350.261</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2448.3679999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2476.7779999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2542.4229999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2573.261</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2631.1210000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2691.0709999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2759.0120000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2836.4340000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2909.1419999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3001.8789999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1486-40EC-9A15-125580EC40BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$5:$E$45</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>220.61700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188.65100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195.07899999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196.548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194.94600000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.62699999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187.005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181.66600000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196.06299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205.96600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225.98900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>235.14599999999984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>251.93799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250.77999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>242.72299999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250.32400000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>225.93399999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>245.89799999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>255.81200000000013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>285.7489999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>286.14699999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>297.827</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>281.18499999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>307.58300000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>261.95100000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260.72400000000016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>264.8610000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>300.66999999999985</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>284.8159999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>309.44499999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>349.24299999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>319.3439999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>326.67999999999984</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>299.20899999999983</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>298.75900000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>300.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>310.03200000000015</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>329.14499999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>343.54399999999987</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>377.97199999999975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1486-40EC-9A15-125580EC40BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="184357200"/>
+        <c:axId val="187715440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="184357200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187715440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="187715440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184357200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>220.61700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188.65100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195.07899999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196.548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194.94600000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.62699999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187.005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181.66600000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196.06299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205.96600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225.98900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>235.14599999999984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>251.93799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250.77999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>242.72299999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250.32400000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>225.93399999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>245.89799999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>255.81200000000013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>285.7489999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>286.14699999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>297.827</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>281.18499999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>307.58300000000008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>261.95100000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>260.72400000000016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>264.8610000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>300.66999999999985</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>284.8159999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>309.44499999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>349.24299999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>319.3439999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>326.67999999999984</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>299.20899999999983</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>298.75900000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>300.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>310.03200000000015</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>329.14499999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>343.54399999999987</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>377.97199999999975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4049-48E0-A07A-D6C133B15859}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="187942928"/>
+        <c:axId val="203038096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="187942928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="203038096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="203038096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187942928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF0D5DB-E9B2-CE4E-7CAB-935A1C34B048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071F88B8-5723-AB5C-ADCD-0B3F49D03F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97650C7D-82E4-A128-B8D4-4782255EC0B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A7A5BA-7E52-1E26-39B3-75E6EC874EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,198 +6047,1020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288C5F0-AF61-4E26-9BFE-C4E1DAB9DA45}">
-  <dimension ref="A5:B40"/>
+  <dimension ref="A2:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F5" sqref="F5:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <f>A6-A5</f>
+        <v>58.308999999999969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <f>A7-A6</f>
+        <v>58.309000000000026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <f>A10-A9</f>
+        <v>58.309000000000083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>291.54500000000002</v>
       </c>
       <c r="B5">
-        <v>555.76700000000005</v>
+        <v>512.16200000000003</v>
+      </c>
+      <c r="C5">
+        <f>B5-A5</f>
+        <v>220.61700000000002</v>
+      </c>
+      <c r="D5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f>D5-E5</f>
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="S5">
+        <f>A40-A39</f>
+        <v>58.309999999999945</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>349.85399999999998</v>
       </c>
+      <c r="B6">
+        <v>538.505</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C45" si="0">B6-A6</f>
+        <v>188.65100000000001</v>
+      </c>
+      <c r="D6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F45" si="1">D6-E6</f>
+        <v>3.1999999999999993</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>408.16300000000001</v>
       </c>
+      <c r="B7">
+        <v>603.24199999999996</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>195.07899999999995</v>
+      </c>
+      <c r="D7">
+        <v>10.3</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000007</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>466.47199999999998</v>
       </c>
+      <c r="B8">
+        <v>663.02</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>196.548</v>
+      </c>
+      <c r="D8">
+        <v>11.4</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>524.78099999999995</v>
       </c>
+      <c r="B9">
+        <v>719.72699999999998</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>194.94600000000003</v>
+      </c>
+      <c r="D9">
+        <v>12.3</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000007</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>583.09</v>
       </c>
+      <c r="B10">
+        <v>776.71699999999998</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>193.62699999999995</v>
+      </c>
+      <c r="D10">
+        <v>13.3</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="G10">
+        <f>B10-B9</f>
+        <v>56.990000000000009</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>641.399</v>
       </c>
+      <c r="B11">
+        <v>828.404</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>187.005</v>
+      </c>
+      <c r="D11">
+        <v>14.2</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999993</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>699.70799999999997</v>
       </c>
+      <c r="B12">
+        <v>881.37400000000002</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>181.66600000000005</v>
+      </c>
+      <c r="D12">
+        <v>15.1</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>3.0999999999999996</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>758.01700000000005</v>
       </c>
+      <c r="B13">
+        <v>954.08</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>196.06299999999999</v>
+      </c>
+      <c r="D13">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3.3999999999999986</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>816.327</v>
       </c>
+      <c r="B14">
+        <v>1022.293</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>205.96600000000001</v>
+      </c>
+      <c r="D14">
+        <v>17.5</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>874.63599999999997</v>
       </c>
+      <c r="B15">
+        <v>1100.625</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>225.98900000000003</v>
+      </c>
+      <c r="D15">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3.8999999999999986</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>932.94500000000005</v>
       </c>
+      <c r="B16">
+        <v>1168.0909999999999</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>235.14599999999984</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>991.25400000000002</v>
       </c>
+      <c r="B17">
+        <v>1243.192</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>251.93799999999999</v>
+      </c>
+      <c r="D17">
+        <v>21.3</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4.3000000000000007</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1049.5630000000001</v>
       </c>
+      <c r="B18">
+        <v>1300.3430000000001</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>250.77999999999997</v>
+      </c>
+      <c r="D18">
+        <v>22.3</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>4.3000000000000007</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1107.8720000000001</v>
       </c>
+      <c r="B19">
+        <v>1350.595</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>242.72299999999996</v>
+      </c>
+      <c r="D19">
+        <v>23.2</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1166.181</v>
       </c>
+      <c r="B20">
+        <v>1416.5050000000001</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>250.32400000000007</v>
+      </c>
+      <c r="D20">
+        <v>24.3</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>4.3000000000000007</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1224.49</v>
       </c>
+      <c r="B21">
+        <v>1450.424</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>225.93399999999997</v>
+      </c>
+      <c r="D21">
+        <v>24.9</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>3.8999999999999986</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1282.799</v>
       </c>
+      <c r="B22">
+        <v>1528.6969999999999</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>245.89799999999991</v>
+      </c>
+      <c r="D22">
+        <v>26.2</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1341.1079999999999</v>
       </c>
+      <c r="B23">
+        <v>1596.92</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>255.81200000000013</v>
+      </c>
+      <c r="D23">
+        <v>27.4</v>
+      </c>
+      <c r="E23">
+        <v>23</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>4.3999999999999986</v>
+      </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1399.4169999999999</v>
       </c>
+      <c r="B24">
+        <v>1650.2719999999999</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>250.85500000000002</v>
+      </c>
+      <c r="D24">
+        <v>28.3</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>4.3000000000000007</v>
+      </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1457.7260000000001</v>
       </c>
+      <c r="B25">
+        <v>1743.4749999999999</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>285.7489999999998</v>
+      </c>
+      <c r="D25">
+        <v>29.9</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999986</v>
+      </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1516.0350000000001</v>
       </c>
+      <c r="B26">
+        <v>1802.182</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>286.14699999999993</v>
+      </c>
+      <c r="D26">
+        <v>30.9</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999986</v>
+      </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1574.3440000000001</v>
       </c>
+      <c r="B27">
+        <v>1872.171</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>297.827</v>
+      </c>
+      <c r="D27">
+        <v>32.1</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>5.1000000000000014</v>
+      </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1632.653</v>
       </c>
+      <c r="B28">
+        <v>1913.838</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>281.18499999999995</v>
+      </c>
+      <c r="D28">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>4.7999999999999972</v>
+      </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1690.962</v>
       </c>
+      <c r="B29">
+        <v>1998.5450000000001</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>307.58300000000008</v>
+      </c>
+      <c r="D29">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999972</v>
+      </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1749.271</v>
       </c>
+      <c r="B30">
+        <v>2011.222</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>261.95100000000002</v>
+      </c>
+      <c r="D30">
+        <v>34.5</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1807.58</v>
       </c>
+      <c r="B31">
+        <v>2068.3040000000001</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>260.72400000000016</v>
+      </c>
+      <c r="D31">
+        <v>35.5</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1865.8889999999999</v>
       </c>
+      <c r="B32">
+        <v>2130.75</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>264.8610000000001</v>
+      </c>
+      <c r="D32">
+        <v>36.5</v>
+      </c>
+      <c r="E32">
+        <v>32</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1924.1980000000001</v>
       </c>
+      <c r="B33">
+        <v>2224.8679999999999</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>300.66999999999985</v>
+      </c>
+      <c r="D33">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E33">
+        <v>33</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>5.2000000000000028</v>
+      </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1982.5070000000001</v>
       </c>
+      <c r="B34">
+        <v>2267.3229999999999</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>284.8159999999998</v>
+      </c>
+      <c r="D34">
+        <v>38.9</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999986</v>
+      </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2040.816</v>
       </c>
+      <c r="B35">
+        <v>2350.261</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>309.44499999999994</v>
+      </c>
+      <c r="D35">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E35">
+        <v>35</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999972</v>
+      </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2099.125</v>
       </c>
+      <c r="B36">
+        <v>2448.3679999999999</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>349.24299999999994</v>
+      </c>
+      <c r="D36">
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2157.4340000000002</v>
       </c>
+      <c r="B37">
+        <v>2476.7779999999998</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>319.3439999999996</v>
+      </c>
+      <c r="D37">
+        <v>42.5</v>
+      </c>
+      <c r="E37">
+        <v>37</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2215.7429999999999</v>
       </c>
+      <c r="B38">
+        <v>2542.4229999999998</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>326.67999999999984</v>
+      </c>
+      <c r="D38">
+        <v>43.6</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000014</v>
+      </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2274.0520000000001</v>
       </c>
+      <c r="B39">
+        <v>2573.261</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>299.20899999999983</v>
+      </c>
+      <c r="D39">
+        <v>44.1</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="R39">
+        <v>39</v>
+      </c>
+      <c r="S39">
+        <v>2274.0520000000001</v>
+      </c>
+      <c r="T39">
+        <v>44.1</v>
+      </c>
+      <c r="U39">
+        <v>2573.261</v>
+      </c>
+      <c r="V39">
+        <f>U39-S39</f>
+        <v>299.20899999999983</v>
+      </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2332.3620000000001</v>
+      </c>
+      <c r="B40">
+        <v>2631.1210000000001</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>298.75900000000001</v>
+      </c>
+      <c r="D40">
+        <v>45.1</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="R40">
+        <v>40</v>
+      </c>
+      <c r="S40">
+        <v>2332.3620000000001</v>
+      </c>
+      <c r="T40">
+        <v>45.1</v>
+      </c>
+      <c r="U40">
+        <v>2631.1210000000001</v>
+      </c>
+      <c r="V40">
+        <f>U40-S40</f>
+        <v>298.75900000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2390.6709999999998</v>
+      </c>
+      <c r="B41">
+        <v>2691.0709999999999</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>300.40000000000009</v>
+      </c>
+      <c r="D41">
+        <v>46.2</v>
+      </c>
+      <c r="E41">
+        <v>41</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>5.2000000000000028</v>
+      </c>
+      <c r="R41">
+        <v>9</v>
+      </c>
+      <c r="S41">
+        <v>524.78099999999995</v>
+      </c>
+      <c r="T41">
+        <v>12.3</v>
+      </c>
+      <c r="U41">
+        <v>719.72699999999998</v>
+      </c>
+      <c r="V41">
+        <f>U41-S41</f>
+        <v>194.94600000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2448.98</v>
+      </c>
+      <c r="B42">
+        <v>2759.0120000000002</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>310.03200000000015</v>
+      </c>
+      <c r="D42">
+        <v>47.3</v>
+      </c>
+      <c r="E42">
+        <v>42</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>583.09</v>
+      </c>
+      <c r="T42">
+        <v>13.3</v>
+      </c>
+      <c r="U42">
+        <v>776.71699999999998</v>
+      </c>
+      <c r="V42">
+        <f>U42-S42</f>
+        <v>193.62699999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2507.2890000000002</v>
+      </c>
+      <c r="B43">
+        <v>2836.4340000000002</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>329.14499999999998</v>
+      </c>
+      <c r="D43">
+        <v>48.6</v>
+      </c>
+      <c r="E43">
+        <v>43</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2565.598</v>
+      </c>
+      <c r="B44">
+        <v>2909.1419999999998</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>343.54399999999987</v>
+      </c>
+      <c r="D44">
+        <v>49.9</v>
+      </c>
+      <c r="E44">
+        <v>44</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>5.8999999999999986</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2623.9070000000002</v>
+      </c>
+      <c r="B45">
+        <v>3001.8789999999999</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>377.97199999999975</v>
+      </c>
+      <c r="D45">
+        <v>51.3</v>
+      </c>
+      <c r="E45">
+        <v>45</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>6.2999999999999972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f>AVERAGE(C5:C45)</f>
+        <v>263.19153658536572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <f>B40-B39</f>
+        <v>57.860000000000127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/50kHz measurments.xlsx
+++ b/50kHz measurments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiera\Documents\GitHub\PROJ324_SK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmall1\Documents\GitHub\PROJ324_SK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80135C30-E0FE-4503-9CA4-FEA0ECCB4F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FCC8DD-5DE7-48E0-9477-8322340C6E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
   </bookViews>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2845,6 +2845,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph of object distance against distance error (in us)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2858,7 +2883,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2891,8 +2916,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2901,17 +2926,17 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3222,6 +3247,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Distance from object (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.34910979877515308"/>
+              <c:y val="0.88432852143482066"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3230,9 +3318,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3284,6 +3372,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Dleay betwwen actual distance and measured distance (in us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5000000000000001E-2"/>
+              <c:y val="0.12064814814814814"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3292,9 +3443,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3346,7 +3497,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -5086,7 +5237,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5097,7 +5248,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5113,25 +5264,25 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -5143,7 +5294,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5151,11 +5302,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5187,35 +5338,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5227,22 +5388,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5272,15 +5437,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5290,7 +5453,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5299,7 +5462,43 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -5309,65 +5508,125 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5380,54 +5639,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5437,8 +5659,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5448,66 +5670,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5516,14 +5679,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5537,27 +5699,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5574,9 +5735,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5589,14 +5750,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5713,16 +5868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6049,8 +6204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288C5F0-AF61-4E26-9BFE-C4E1DAB9DA45}">
   <dimension ref="A2:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/50kHz measurments.xlsx
+++ b/50kHz measurments.xlsx
@@ -8,28 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmall1\Documents\GitHub\PROJ324_SK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FCC8DD-5DE7-48E0-9477-8322340C6E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B32BAFB-A131-4879-92CA-CB480EA430C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3528,6 +3518,921 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$10:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>195.10199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>216.51099999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240.02299999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244.24900000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245.2940000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>222.16600000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205.54399999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>218.72899999999981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215.88599999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>252.596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250.07500000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>285.78700000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>298.83200000000011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>305.09800000000018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>315.53799999999978</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>301.49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300.24299999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>278.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>263.41200000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>284.48800000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>284.15700000000015</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320.5450000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>343.60099999999989</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>364.47199999999975</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>384.94299999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>349.82400000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>323.54599999999982</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>305.55099999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>316.41300000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>307.82899999999972</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>319.94500000000016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>314.49400000000014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>337.73199999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>364.45299999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>426.52700000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>364.54899999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>358.19399999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>385.74000000000024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>375.58000000000038</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>416.8119999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A01-427E-9E6C-2F4848D6E32E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$5:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>211.90999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196.92400000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188.90800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182.447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.90500000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150.255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>193.37900000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>239.41699999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>251.18900000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>258.28199999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>260.43899999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>255.95899999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>243.09399999999982</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>234.28999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240.25199999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>243.86300000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>275.53099999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>298.31600000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>308.15900000000011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>323.97999999999979</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>317.59199999999987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>310.42399999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>308.53700000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>260.70399999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>284.29500000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>283.66200000000026</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>293.9190000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>295.02299999999991</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>290.97699999999986</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>371.92100000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>348.65700000000015</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>382.42599999999993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>355.92300000000023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>337.33199999999988</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>313.84999999999991</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>316.55200000000013</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>336.74499999999989</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>348.59099999999989</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>390.76600000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A01-427E-9E6C-2F4848D6E32E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1196160384"/>
+        <c:axId val="1093146800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1196160384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093146800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1093146800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196160384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3688,6 +4593,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5237,6 +6182,526 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5897,6 +7362,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71FC93AE-4AC8-45D8-B3FA-183D25CC5BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6204,8 +7710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288C5F0-AF61-4E26-9BFE-C4E1DAB9DA45}">
   <dimension ref="A2:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7218,4 +8724,965 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A581574-D065-4677-A136-CE1820FEC8BC}">
+  <dimension ref="A5:F51"/>
+  <sheetViews>
+    <sheetView topLeftCell="K6" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>291.54500000000002</v>
+      </c>
+      <c r="B5">
+        <v>503.45499999999998</v>
+      </c>
+      <c r="C5">
+        <f>B5-A5</f>
+        <v>211.90999999999997</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>349.85399999999998</v>
+      </c>
+      <c r="B6">
+        <v>546.77800000000002</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C44" si="0">B6-A6</f>
+        <v>196.92400000000004</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>408.16300000000001</v>
+      </c>
+      <c r="B7">
+        <v>597.07100000000003</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>188.90800000000002</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>466.47199999999998</v>
+      </c>
+      <c r="B8">
+        <v>648.91899999999998</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>182.447</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>524.78099999999995</v>
+      </c>
+      <c r="B9">
+        <v>706.68600000000004</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>181.90500000000009</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>583.09</v>
+      </c>
+      <c r="B10">
+        <v>733.34500000000003</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>150.255</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>778.19200000000001</v>
+      </c>
+      <c r="F10">
+        <f>E10-A10</f>
+        <v>195.10199999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>641.399</v>
+      </c>
+      <c r="B11">
+        <v>834.77800000000002</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>193.37900000000002</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>857.91</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F50" si="1">E11-A11</f>
+        <v>216.51099999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>699.70799999999997</v>
+      </c>
+      <c r="B12">
+        <v>916.14099999999996</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>216.43299999999999</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>930.92</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>231.21199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>758.01700000000005</v>
+      </c>
+      <c r="B13">
+        <v>997.43399999999997</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>239.41699999999992</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>998.04</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>240.02299999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>816.327</v>
+      </c>
+      <c r="B14">
+        <v>1067.5160000000001</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>251.18900000000008</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>1060.576</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>244.24900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>874.63599999999997</v>
+      </c>
+      <c r="B15">
+        <v>1132.9179999999999</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>258.28199999999993</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>1119.93</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>245.2940000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>932.94500000000005</v>
+      </c>
+      <c r="B16">
+        <v>1193.384</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>260.43899999999996</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>1155.1110000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>222.16600000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>991.25400000000002</v>
+      </c>
+      <c r="B17">
+        <v>1247.213</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>255.95899999999995</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>1196.798</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>205.54399999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1049.5630000000001</v>
+      </c>
+      <c r="B18">
+        <v>1292.6569999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>243.09399999999982</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>1268.2919999999999</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>218.72899999999981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1107.8720000000001</v>
+      </c>
+      <c r="B19">
+        <v>1342.162</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>234.28999999999996</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>1323.758</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>215.88599999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1166.181</v>
+      </c>
+      <c r="B20">
+        <v>1406.433</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>240.25199999999995</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1418.777</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>252.596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1224.49</v>
+      </c>
+      <c r="B21">
+        <v>1468.3530000000001</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>243.86300000000006</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1474.5650000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>250.07500000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1282.799</v>
+      </c>
+      <c r="B22">
+        <v>1558.33</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>275.53099999999995</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1568.586</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>285.78700000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1341.1079999999999</v>
+      </c>
+      <c r="B23">
+        <v>1639.424</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>298.31600000000003</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1639.94</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>298.83200000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1399.4169999999999</v>
+      </c>
+      <c r="B24">
+        <v>1707.576</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>308.15900000000011</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1704.5150000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>305.09800000000018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1457.7260000000001</v>
+      </c>
+      <c r="B25">
+        <v>1781.7059999999999</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>323.97999999999979</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1773.2639999999999</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>315.53799999999978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1516.0350000000001</v>
+      </c>
+      <c r="B26">
+        <v>1833.627</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>317.59199999999987</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>1817.5250000000001</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>301.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1574.3440000000001</v>
+      </c>
+      <c r="B27">
+        <v>1884.768</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>310.42399999999998</v>
+      </c>
+      <c r="D27">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1874.587</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>300.24299999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1632.653</v>
+      </c>
+      <c r="B28">
+        <v>1941.19</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>308.53700000000003</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>1911.2529999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>278.59999999999991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1690.962</v>
+      </c>
+      <c r="B29">
+        <v>1951.6659999999999</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>260.70399999999995</v>
+      </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>1954.374</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>263.41200000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1749.271</v>
+      </c>
+      <c r="B30">
+        <v>2033.566</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>284.29500000000007</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>2033.759</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>284.48800000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1807.58</v>
+      </c>
+      <c r="B31">
+        <v>2091.2420000000002</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>283.66200000000026</v>
+      </c>
+      <c r="D31">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>2091.7370000000001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>284.15700000000015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1865.8889999999999</v>
+      </c>
+      <c r="B32">
+        <v>2159.808</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>293.9190000000001</v>
+      </c>
+      <c r="D32">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>2186.4340000000002</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>320.5450000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1924.1980000000001</v>
+      </c>
+      <c r="B33">
+        <v>2219.221</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>295.02299999999991</v>
+      </c>
+      <c r="D33">
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <v>2267.799</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>343.60099999999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1982.5070000000001</v>
+      </c>
+      <c r="B34">
+        <v>2273.4839999999999</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>290.97699999999986</v>
+      </c>
+      <c r="D34">
+        <v>34</v>
+      </c>
+      <c r="E34">
+        <v>2346.9789999999998</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>364.47199999999975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2040.816</v>
+      </c>
+      <c r="B35">
+        <v>2412.7370000000001</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>371.92100000000005</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>2425.759</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>384.94299999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2099.125</v>
+      </c>
+      <c r="B36">
+        <v>2447.7820000000002</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>348.65700000000015</v>
+      </c>
+      <c r="D36">
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>2448.9490000000001</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>349.82400000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2157.4340000000002</v>
+      </c>
+      <c r="B37">
+        <v>2539.86</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>382.42599999999993</v>
+      </c>
+      <c r="D37">
+        <v>37</v>
+      </c>
+      <c r="E37">
+        <v>2480.98</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>323.54599999999982</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2215.7429999999999</v>
+      </c>
+      <c r="B38">
+        <v>2571.6660000000002</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>355.92300000000023</v>
+      </c>
+      <c r="D38">
+        <v>38</v>
+      </c>
+      <c r="E38">
+        <v>2521.2939999999999</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>305.55099999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2274.0520000000001</v>
+      </c>
+      <c r="B39">
+        <v>2611.384</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>337.33199999999988</v>
+      </c>
+      <c r="D39">
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>2590.4650000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>316.41300000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2332.3620000000001</v>
+      </c>
+      <c r="B40">
+        <v>2646.212</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>313.84999999999991</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>2640.1909999999998</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>307.82899999999972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2390.6709999999998</v>
+      </c>
+      <c r="B41">
+        <v>2707.223</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>316.55200000000013</v>
+      </c>
+      <c r="D41">
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>2710.616</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>319.94500000000016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2448.98</v>
+      </c>
+      <c r="B42">
+        <v>2785.7249999999999</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>336.74499999999989</v>
+      </c>
+      <c r="D42">
+        <v>42</v>
+      </c>
+      <c r="E42">
+        <v>2763.4740000000002</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>314.49400000000014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2507.2890000000002</v>
+      </c>
+      <c r="B43">
+        <v>2855.88</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>348.59099999999989</v>
+      </c>
+      <c r="D43">
+        <v>43</v>
+      </c>
+      <c r="E43">
+        <v>2845.0210000000002</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>337.73199999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2565.598</v>
+      </c>
+      <c r="B44">
+        <v>2956.364</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>390.76600000000008</v>
+      </c>
+      <c r="D44">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>2930.0509999999999</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>364.45299999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2623.9070000000002</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGE(C5:C44)</f>
+        <v>277.57070000000004</v>
+      </c>
+      <c r="D45">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>3050.4340000000002</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>426.52700000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2915.4520000000002</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>3280.0010000000002</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>364.54899999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3206.9969999999998</v>
+      </c>
+      <c r="D47">
+        <v>55</v>
+      </c>
+      <c r="E47">
+        <v>3565.1909999999998</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>358.19399999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3498.5419999999999</v>
+      </c>
+      <c r="D48">
+        <v>60</v>
+      </c>
+      <c r="E48">
+        <v>3884.2820000000002</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>385.74000000000024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3790.087</v>
+      </c>
+      <c r="D49">
+        <v>65</v>
+      </c>
+      <c r="E49">
+        <v>4165.6670000000004</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>375.58000000000038</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4081.6329999999998</v>
+      </c>
+      <c r="D50">
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>4498.4449999999997</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>416.8119999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>AVERAGE(F10:F46)</f>
+        <v>291.87718918918927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/50kHz measurments.xlsx
+++ b/50kHz measurments.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmall1\Documents\GitHub\PROJ324_SK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B32BAFB-A131-4879-92CA-CB480EA430C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A48811E-DB94-455A-AB2D-8F7525A32125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$5:$A$30</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$B$5:$B$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3546,6 +3551,460 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8991896160600729E-2"/>
+          <c:y val="0.12845021645021645"/>
+          <c:w val="0.90841198403500201"/>
+          <c:h val="0.79120946245355694"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$5:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$5:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>285147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126914.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78297.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55346.239999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41857.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32757</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26697.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22015.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18392.310000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15505.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13151</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11194.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9542.1659999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8129.0129999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6906.3419999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5838</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4896.6909999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4060.9009999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3313.8420000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2642.1610000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1483.35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>980.08209999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>519.0521</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95.156949999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D165-4768-B04B-56532A7B5FC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2142772767"/>
+        <c:axId val="96401663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2142772767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96401663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="96401663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142772767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
             <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -4633,6 +5092,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6702,6 +7201,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7371,6 +8386,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B10557-DF7E-488F-B7F1-3C5DF1FB8709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7710,7 +8766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288C5F0-AF61-4E26-9BFE-C4E1DAB9DA45}">
   <dimension ref="A2:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
+    <sheetView topLeftCell="G25" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -8727,6 +9783,269 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30EFE3F-6A59-4783-AA79-CB31DEB1F652}">
+  <dimension ref="A2:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>285147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4.2</v>
+      </c>
+      <c r="B6">
+        <v>126914.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B7">
+        <v>78297.100000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B8">
+        <v>55346.239999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.8</v>
+      </c>
+      <c r="B9">
+        <v>41857.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>32757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5.2</v>
+      </c>
+      <c r="B11">
+        <v>26697.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5.4</v>
+      </c>
+      <c r="B12">
+        <v>22015.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.6</v>
+      </c>
+      <c r="B13">
+        <v>18392.310000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5.8</v>
+      </c>
+      <c r="B14">
+        <v>15505.26</v>
+      </c>
+      <c r="E14">
+        <v>4.9528699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>13151</v>
+      </c>
+      <c r="E15">
+        <f>(50000/E14) -10000</f>
+        <v>95.156949405092746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6.2</v>
+      </c>
+      <c r="B16">
+        <v>11194.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6.4</v>
+      </c>
+      <c r="B17">
+        <v>9542.1659999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6.6</v>
+      </c>
+      <c r="B18">
+        <v>8129.0129999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6.8</v>
+      </c>
+      <c r="B19">
+        <v>6906.3419999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7.2</v>
+      </c>
+      <c r="B21">
+        <v>4896.6909999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7.4</v>
+      </c>
+      <c r="B22">
+        <v>4060.9009999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7.6</v>
+      </c>
+      <c r="B23">
+        <v>3313.8420000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7.8</v>
+      </c>
+      <c r="B24">
+        <v>2642.1610000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B26">
+        <v>1483.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8.4</v>
+      </c>
+      <c r="B27">
+        <v>980.08209999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8.6</v>
+      </c>
+      <c r="B28">
+        <v>519.0521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B29">
+        <v>95.156949999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A581574-D065-4677-A136-CE1820FEC8BC}">
   <dimension ref="A5:F51"/>
   <sheetViews>

--- a/50kHz measurments.xlsx
+++ b/50kHz measurments.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmall1\Documents\GitHub\PROJ324_SK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A48811E-DB94-455A-AB2D-8F7525A32125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7A53D7-43B7-4B24-AFEB-25AA4D163D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$5:$A$30</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$B$5:$B$30</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8348,16 +8344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8430,16 +8426,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8766,7 +8762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288C5F0-AF61-4E26-9BFE-C4E1DAB9DA45}">
   <dimension ref="A2:V47"/>
   <sheetViews>
-    <sheetView topLeftCell="G25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G43" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -9786,7 +9782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30EFE3F-6A59-4783-AA79-CB31DEB1F652}">
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -10049,7 +10045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A581574-D065-4677-A136-CE1820FEC8BC}">
   <dimension ref="A5:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="K6" workbookViewId="0">
+    <sheetView topLeftCell="K9" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>

--- a/50kHz measurments.xlsx
+++ b/50kHz measurments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmall1\Documents\GitHub\PROJ324_SK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7A53D7-43B7-4B24-AFEB-25AA4D163D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DD844A-028C-4C07-9200-197B9BC2D45F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4888,6 +4892,435 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$5:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$5:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>216.53699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250.25400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>273.29200000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>317.12099999999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321.51499999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305.85900000000015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>315.85099999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>333.5659999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350.10399999999981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>319.779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>382.53700000000026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>392.80200000000013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>358.00300000000016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>370.48100000000022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>414.05199999999968</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>374.21200000000044</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>342.58200000000033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>362.73199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0485-4BF6-918C-4607AEC7E3EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="37185807"/>
+        <c:axId val="46128879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="37185807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46128879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46128879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37185807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5128,6 +5561,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8228,6 +8701,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8460,6 +9449,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63993162-7E3D-4F5C-8EC1-F3323BFE52AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8762,7 +9787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288C5F0-AF61-4E26-9BFE-C4E1DAB9DA45}">
   <dimension ref="A2:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G43" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -10043,15 +11068,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A581574-D065-4677-A136-CE1820FEC8BC}">
-  <dimension ref="A5:F51"/>
+  <dimension ref="A5:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="K9" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>291.54500000000002</v>
       </c>
@@ -10065,8 +11090,28 @@
       <c r="D5">
         <v>5</v>
       </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>291.54500000000002</v>
+      </c>
+      <c r="J5">
+        <v>528.43399999999997</v>
+      </c>
+      <c r="K5">
+        <f>J5-I5</f>
+        <v>236.88899999999995</v>
+      </c>
+      <c r="L5">
+        <v>508.08199999999999</v>
+      </c>
+      <c r="M5">
+        <f>L5-I5</f>
+        <v>216.53699999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>349.85399999999998</v>
       </c>
@@ -10080,8 +11125,28 @@
       <c r="D6">
         <v>6</v>
       </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>583.09</v>
+      </c>
+      <c r="J6">
+        <v>830.47500000000002</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K16" si="1">J6-I6</f>
+        <v>247.38499999999999</v>
+      </c>
+      <c r="L6">
+        <v>833.34400000000005</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M22" si="2">L6-I6</f>
+        <v>250.25400000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>408.16300000000001</v>
       </c>
@@ -10095,8 +11160,28 @@
       <c r="D7">
         <v>7</v>
       </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>874.63599999999997</v>
+      </c>
+      <c r="J7">
+        <v>1128.7070000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>254.07100000000014</v>
+      </c>
+      <c r="L7">
+        <v>1147.9280000000001</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>273.29200000000014</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>466.47199999999998</v>
       </c>
@@ -10110,8 +11195,28 @@
       <c r="D8">
         <v>8</v>
       </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>1166.181</v>
+      </c>
+      <c r="J8">
+        <v>1463.9690000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>297.78800000000001</v>
+      </c>
+      <c r="L8">
+        <v>1483.3019999999999</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>317.12099999999987</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>524.78099999999995</v>
       </c>
@@ -10125,8 +11230,28 @@
       <c r="D9">
         <v>9</v>
       </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>1457.7260000000001</v>
+      </c>
+      <c r="J9">
+        <v>1754.7170000000001</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>296.99099999999999</v>
+      </c>
+      <c r="L9">
+        <v>1779.241</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>321.51499999999987</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>583.09</v>
       </c>
@@ -10147,8 +11272,28 @@
         <f>E10-A10</f>
         <v>195.10199999999998</v>
       </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>1749.271</v>
+      </c>
+      <c r="J10">
+        <v>2091.2919999999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>342.02099999999996</v>
+      </c>
+      <c r="L10">
+        <v>2055.13</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>305.85900000000015</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>641.399</v>
       </c>
@@ -10166,11 +11311,31 @@
         <v>857.91</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F50" si="1">E11-A11</f>
+        <f t="shared" ref="F11:F50" si="3">E11-A11</f>
         <v>216.51099999999997</v>
       </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>2040.816</v>
+      </c>
+      <c r="J11">
+        <v>2378.5050000000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>337.68900000000008</v>
+      </c>
+      <c r="L11">
+        <v>2356.6669999999999</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>315.85099999999989</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>699.70799999999997</v>
       </c>
@@ -10188,11 +11353,31 @@
         <v>930.92</v>
       </c>
       <c r="F12">
+        <f t="shared" si="3"/>
+        <v>231.21199999999999</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>2332.3620000000001</v>
+      </c>
+      <c r="J12">
+        <v>2697.9479999999999</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="1"/>
-        <v>231.21199999999999</v>
+        <v>365.58599999999979</v>
+      </c>
+      <c r="L12">
+        <v>2665.9279999999999</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>333.5659999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>758.01700000000005</v>
       </c>
@@ -10210,11 +11395,31 @@
         <v>998.04</v>
       </c>
       <c r="F13">
+        <f t="shared" si="3"/>
+        <v>240.02299999999991</v>
+      </c>
+      <c r="H13">
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <v>2623.9070000000002</v>
+      </c>
+      <c r="J13">
+        <v>2993.0309999999999</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="1"/>
-        <v>240.02299999999991</v>
+        <v>369.1239999999998</v>
+      </c>
+      <c r="L13">
+        <v>2974.011</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>350.10399999999981</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>816.327</v>
       </c>
@@ -10232,11 +11437,31 @@
         <v>1060.576</v>
       </c>
       <c r="F14">
+        <f t="shared" si="3"/>
+        <v>244.24900000000002</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>2915.4520000000002</v>
+      </c>
+      <c r="J14">
+        <v>3335.5059999999999</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="1"/>
-        <v>244.24900000000002</v>
+        <v>420.05399999999963</v>
+      </c>
+      <c r="L14">
+        <v>3235.2310000000002</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>319.779</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>874.63599999999997</v>
       </c>
@@ -10254,11 +11479,31 @@
         <v>1119.93</v>
       </c>
       <c r="F15">
+        <f t="shared" si="3"/>
+        <v>245.2940000000001</v>
+      </c>
+      <c r="H15">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>3206.9969999999998</v>
+      </c>
+      <c r="J15">
+        <v>3667.7449999999999</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="1"/>
-        <v>245.2940000000001</v>
+        <v>460.74800000000005</v>
+      </c>
+      <c r="L15">
+        <v>3589.5340000000001</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>382.53700000000026</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>932.94500000000005</v>
       </c>
@@ -10276,11 +11521,31 @@
         <v>1155.1110000000001</v>
       </c>
       <c r="F16">
+        <f t="shared" si="3"/>
+        <v>222.16600000000005</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>3498.5419999999999</v>
+      </c>
+      <c r="J16">
+        <v>3896.4459999999999</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="1"/>
-        <v>222.16600000000005</v>
+        <v>397.904</v>
+      </c>
+      <c r="L16">
+        <v>3891.3440000000001</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>392.80200000000013</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>991.25400000000002</v>
       </c>
@@ -10298,11 +11563,31 @@
         <v>1196.798</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>205.54399999999998</v>
       </c>
+      <c r="H17">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>3790.087</v>
+      </c>
+      <c r="J17">
+        <v>4517.4629999999997</v>
+      </c>
+      <c r="K17">
+        <f>J17-I18</f>
+        <v>436.29999999999973</v>
+      </c>
+      <c r="L17">
+        <v>4148.09</v>
+      </c>
+      <c r="M17">
+        <f>L17-I17</f>
+        <v>358.00300000000016</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1049.5630000000001</v>
       </c>
@@ -10320,11 +11605,28 @@
         <v>1268.2919999999999</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>218.72899999999981</v>
       </c>
+      <c r="H18">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>4081.163</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE(K5:K17)</f>
+        <v>343.27307692307687</v>
+      </c>
+      <c r="L18">
+        <v>4451.6440000000002</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M23" si="4">L18-I18</f>
+        <v>370.48100000000022</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1107.8720000000001</v>
       </c>
@@ -10342,11 +11644,24 @@
         <v>1323.758</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>215.88599999999997</v>
       </c>
+      <c r="H19">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <v>4373.1790000000001</v>
+      </c>
+      <c r="L19">
+        <v>4787.2309999999998</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>414.05199999999968</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1166.181</v>
       </c>
@@ -10364,11 +11679,24 @@
         <v>1418.777</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>252.596</v>
       </c>
+      <c r="H20">
+        <v>80</v>
+      </c>
+      <c r="I20">
+        <v>4664.723</v>
+      </c>
+      <c r="L20">
+        <v>5038.9350000000004</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>374.21200000000044</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1224.49</v>
       </c>
@@ -10386,11 +11714,24 @@
         <v>1474.5650000000001</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>250.07500000000005</v>
       </c>
+      <c r="H21">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>4956.268</v>
+      </c>
+      <c r="L21">
+        <v>5298.85</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>342.58200000000033</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1282.799</v>
       </c>
@@ -10408,11 +11749,15 @@
         <v>1568.586</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>285.78700000000003</v>
       </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1341.1079999999999</v>
       </c>
@@ -10430,11 +11775,24 @@
         <v>1639.94</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>298.83200000000011</v>
       </c>
+      <c r="H23">
+        <v>95</v>
+      </c>
+      <c r="I23">
+        <v>5539.3590000000004</v>
+      </c>
+      <c r="L23">
+        <v>5902.0910000000003</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>362.73199999999997</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1399.4169999999999</v>
       </c>
@@ -10452,11 +11810,19 @@
         <v>1704.5150000000001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>305.09800000000018</v>
       </c>
+      <c r="L24">
+        <f>AVERAGE(L5:L23)</f>
+        <v>3119.254611111111</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(M5:M23)</f>
+        <v>315.85678947368427</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1457.7260000000001</v>
       </c>
@@ -10474,11 +11840,11 @@
         <v>1773.2639999999999</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>315.53799999999978</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1516.0350000000001</v>
       </c>
@@ -10496,11 +11862,11 @@
         <v>1817.5250000000001</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>301.49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1574.3440000000001</v>
       </c>
@@ -10518,11 +11884,11 @@
         <v>1874.587</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>300.24299999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1632.653</v>
       </c>
@@ -10540,11 +11906,11 @@
         <v>1911.2529999999999</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>278.59999999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1690.962</v>
       </c>
@@ -10562,11 +11928,11 @@
         <v>1954.374</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>263.41200000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1749.271</v>
       </c>
@@ -10584,11 +11950,11 @@
         <v>2033.759</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>284.48800000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1807.58</v>
       </c>
@@ -10606,11 +11972,11 @@
         <v>2091.7370000000001</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>284.15700000000015</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1865.8889999999999</v>
       </c>
@@ -10628,7 +11994,7 @@
         <v>2186.4340000000002</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>320.5450000000003</v>
       </c>
     </row>
@@ -10650,7 +12016,7 @@
         <v>2267.799</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>343.60099999999989</v>
       </c>
     </row>
@@ -10672,7 +12038,7 @@
         <v>2346.9789999999998</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>364.47199999999975</v>
       </c>
     </row>
@@ -10694,7 +12060,7 @@
         <v>2425.759</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>384.94299999999998</v>
       </c>
     </row>
@@ -10716,7 +12082,7 @@
         <v>2448.9490000000001</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>349.82400000000007</v>
       </c>
     </row>
@@ -10738,7 +12104,7 @@
         <v>2480.98</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>323.54599999999982</v>
       </c>
     </row>
@@ -10760,7 +12126,7 @@
         <v>2521.2939999999999</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>305.55099999999993</v>
       </c>
     </row>
@@ -10782,7 +12148,7 @@
         <v>2590.4650000000001</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>316.41300000000001</v>
       </c>
     </row>
@@ -10804,7 +12170,7 @@
         <v>2640.1909999999998</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>307.82899999999972</v>
       </c>
     </row>
@@ -10826,7 +12192,7 @@
         <v>2710.616</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>319.94500000000016</v>
       </c>
     </row>
@@ -10848,7 +12214,7 @@
         <v>2763.4740000000002</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>314.49400000000014</v>
       </c>
     </row>
@@ -10870,7 +12236,7 @@
         <v>2845.0210000000002</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>337.73199999999997</v>
       </c>
     </row>
@@ -10892,7 +12258,7 @@
         <v>2930.0509999999999</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>364.45299999999997</v>
       </c>
     </row>
@@ -10911,7 +12277,7 @@
         <v>3050.4340000000002</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>426.52700000000004</v>
       </c>
     </row>
@@ -10926,7 +12292,7 @@
         <v>3280.0010000000002</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>364.54899999999998</v>
       </c>
     </row>
@@ -10941,7 +12307,7 @@
         <v>3565.1909999999998</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>358.19399999999996</v>
       </c>
     </row>
@@ -10956,7 +12322,7 @@
         <v>3884.2820000000002</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>385.74000000000024</v>
       </c>
     </row>
@@ -10971,7 +12337,7 @@
         <v>4165.6670000000004</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>375.58000000000038</v>
       </c>
     </row>
@@ -10986,7 +12352,7 @@
         <v>4498.4449999999997</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>416.8119999999999</v>
       </c>
     </row>

--- a/50kHz measurments.xlsx
+++ b/50kHz measurments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmall1\Documents\GitHub\PROJ324_SK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DD844A-028C-4C07-9200-197B9BC2D45F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B7164A-95A7-4E07-8CB8-0B1DFFB2BC2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
   </bookViews>
@@ -27,7 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>1cm is 58.309</t>
+  </si>
+  <si>
+    <t>First corrections</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3992,6 +3999,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Distanc</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>e error in us with variable reference voltage set with a mininum of 20mV </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4028,333 +4065,11 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$D$5:$D$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$F$10:$F$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>195.10199999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>216.51099999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>231.21199999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240.02299999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>244.24900000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>245.2940000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>222.16600000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>205.54399999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>218.72899999999981</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>215.88599999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>252.596</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>250.07500000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>285.78700000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>298.83200000000011</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>305.09800000000018</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>315.53799999999978</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>301.49</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>300.24299999999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>278.59999999999991</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>263.41200000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>284.48800000000006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>284.15700000000015</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>320.5450000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>343.60099999999989</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>364.47199999999975</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>384.94299999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>349.82400000000007</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>323.54599999999982</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>305.55099999999993</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>316.41300000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>307.82899999999972</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>319.94500000000016</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>314.49400000000014</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>337.73199999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>364.45299999999997</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>426.52700000000004</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>364.54899999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>358.19399999999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>385.74000000000024</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>375.58000000000038</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>416.8119999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A01-427E-9E6C-2F4848D6E32E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>20mV</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -4378,19 +4093,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet2!$D$5:$D$50</c:f>
@@ -4684,6 +4386,339 @@
         </c:dLbls>
         <c:axId val="1196160384"/>
         <c:axId val="1093146800"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>40mV</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="diamond"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$5:$D$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="46"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>70</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$F$10:$F$50</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="41"/>
+                      <c:pt idx="0">
+                        <c:v>195.10199999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>216.51099999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>231.21199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>240.02299999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>244.24900000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>245.2940000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>222.16600000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>205.54399999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>218.72899999999981</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>215.88599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>252.596</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>250.07500000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>285.78700000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>298.83200000000011</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>305.09800000000018</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>315.53799999999978</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>301.49</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>300.24299999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>278.59999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>263.41200000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>284.48800000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>284.15700000000015</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>320.5450000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>343.60099999999989</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>364.47199999999975</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>384.94299999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>349.82400000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>323.54599999999982</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>305.55099999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>316.41300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>307.82899999999972</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>319.94500000000016</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>314.49400000000014</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>337.73199999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>364.45299999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>426.52700000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>364.54899999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>358.19399999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>385.74000000000024</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>375.58000000000038</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>416.8119999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7A01-427E-9E6C-2F4848D6E32E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1196160384"/>
@@ -4907,6 +4942,601 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Distance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> error in us with a variable reference voltage set as the amplified inverse of the rectified signal</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11561367103480295"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.630034197532537E-2"/>
+          <c:y val="0.33080855564696204"/>
+          <c:w val="0.89268707170358574"/>
+          <c:h val="0.5507973121617058"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$5:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$5:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>216.53699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250.25400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>273.29200000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>317.12099999999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321.51499999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305.85900000000015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>315.85099999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>333.5659999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350.10399999999981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>319.779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>382.53700000000026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>392.80200000000013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>358.00300000000016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>370.48100000000022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>414.05199999999968</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>374.21200000000044</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>342.58200000000033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>362.73199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0485-4BF6-918C-4607AEC7E3EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="37185807"/>
+        <c:axId val="46128879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="37185807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Distance (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44171448448462014"/>
+              <c:y val="0.93042268970110076"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46128879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46128879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>distnace</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> error (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37185807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>First correction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4946,7 +5576,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -4969,129 +5599,471 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$5:$H$23</c:f>
+              <c:f>Sheet2!$H$28:$H$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$5:$M$23</c:f>
+              <c:f>Sheet2!$K$28:$K$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
-                  <c:v>216.53699999999998</c:v>
+                  <c:v>4.978999999999985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250.25400000000002</c:v>
+                  <c:v>-17.358000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.29200000000014</c:v>
+                  <c:v>-68.607000000000028</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>317.12099999999987</c:v>
+                  <c:v>-9.0269999999999868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>321.51499999999987</c:v>
+                  <c:v>-2.5899999999999181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>305.85900000000015</c:v>
+                  <c:v>0.32299999999997908</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>315.85099999999989</c:v>
+                  <c:v>15.662000000000035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>333.5659999999998</c:v>
+                  <c:v>29.798000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>350.10399999999981</c:v>
+                  <c:v>-86.776000000000067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>319.779</c:v>
+                  <c:v>-81.427000000000021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>382.53700000000026</c:v>
+                  <c:v>-81.192999999999984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>392.80200000000013</c:v>
+                  <c:v>-79.107000000000085</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>358.00300000000016</c:v>
+                  <c:v>-66.77800000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>370.48100000000022</c:v>
+                  <c:v>-60.896000000000072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>414.05199999999968</c:v>
+                  <c:v>-60.641000000000076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>374.21200000000044</c:v>
+                  <c:v>-58.970000000000027</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>342.58200000000033</c:v>
+                  <c:v>-47.529999999999973</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-58.244999999999891</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>362.73199999999997</c:v>
+                  <c:v>-73.594000000000051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-45.701000000000022</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-51.685000000000173</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-27.358000000000175</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-34.919000000000096</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-23.653999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-23.204999999999927</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-14.683999999999969</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10.406999999999925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-28.049999999999955</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-30.876000000000204</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-38.336999999999989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-18.227000000000089</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.5039999999999054</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.071999999999662</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.2869999999998072</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.905999999999949</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.1140000000000327</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-17.627999999999702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.0500000000001819</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-27.581000000000131</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-9.7199999999997999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.2400000000002365</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9259999999999309</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-10.84900000000016</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.801000000000386</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.37699999999995271</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-43.199000000000069</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-47.103999999999814</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-43.796000000000276</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-36.601000000000113</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-15.63799999999992</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-30.967999999999847</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.943000000000211</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.4770000000003165</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.9090000000001055</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-21.33600000000024</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.525000000000091</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-35.327000000000226</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-24.532999999999902</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-19.539000000000215</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-21.445999999999913</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.164000000000215</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.30099999999993088</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.8219999999996617</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-22.409999999999854</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-61.751999999999953</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-12.349999999999909</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.8500000000003638</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21.09900000000016</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46.188999999999396</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.38300000000072</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.287000000000262</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>22.462999999999738</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40.962999999999738</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-29.427999999999884</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-25.929000000000087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5099,7 +6071,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0485-4BF6-918C-4607AEC7E3EA}"/>
+              <c16:uniqueId val="{00000000-D548-4ACA-B31F-EFE3D53BA3EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5111,11 +6083,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="37185807"/>
-        <c:axId val="46128879"/>
+        <c:axId val="350217776"/>
+        <c:axId val="442725104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37185807"/>
+        <c:axId val="350217776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5172,12 +6144,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46128879"/>
+        <c:crossAx val="442725104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46128879"/>
+        <c:axId val="442725104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5234,7 +6207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37185807"/>
+        <c:crossAx val="350217776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5601,6 +6574,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8706,6 +9719,526 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9415,16 +10948,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9451,16 +10984,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9483,6 +11016,144 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB71EF3E-FB67-4282-993C-52104A4CB1C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CA229D-3914-439E-A913-E642E3958B5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8991600" y="11991975"/>
+          <a:ext cx="9525" cy="5153025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F8D4E6-92F8-4032-9C17-2ACCA25E21F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13506450" y="12163425"/>
+          <a:ext cx="9525" cy="5153025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11068,10 +12739,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A581574-D065-4677-A136-CE1820FEC8BC}">
-  <dimension ref="A5:M51"/>
+  <dimension ref="A5:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11142,7 +12813,7 @@
         <v>833.34400000000005</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M22" si="2">L6-I6</f>
+        <f t="shared" ref="M6:M16" si="2">L6-I6</f>
         <v>250.25400000000002</v>
       </c>
     </row>
@@ -11865,6 +13536,9 @@
         <f t="shared" si="3"/>
         <v>301.49</v>
       </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -11909,6 +13583,19 @@
         <f t="shared" si="3"/>
         <v>278.59999999999991</v>
       </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>296.524</v>
+      </c>
+      <c r="J28">
+        <v>291.54500000000002</v>
+      </c>
+      <c r="K28">
+        <f>I28-J28</f>
+        <v>4.978999999999985</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -11931,6 +13618,19 @@
         <f t="shared" si="3"/>
         <v>263.41200000000003</v>
       </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>332.49599999999998</v>
+      </c>
+      <c r="J29">
+        <v>349.85399999999998</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K92" si="5">I29-J29</f>
+        <v>-17.358000000000004</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -11953,6 +13653,19 @@
         <f t="shared" si="3"/>
         <v>284.48800000000006</v>
       </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>339.55599999999998</v>
+      </c>
+      <c r="J30">
+        <v>408.16300000000001</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>-68.607000000000028</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -11975,6 +13688,19 @@
         <f t="shared" si="3"/>
         <v>284.15700000000015</v>
       </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>457.44499999999999</v>
+      </c>
+      <c r="J31">
+        <v>466.47199999999998</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>-9.0269999999999868</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -11997,8 +13723,21 @@
         <f t="shared" si="3"/>
         <v>320.5450000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>522.19100000000003</v>
+      </c>
+      <c r="J32">
+        <v>524.78099999999995</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>-2.5899999999999181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1924.1980000000001</v>
       </c>
@@ -12019,8 +13758,21 @@
         <f t="shared" si="3"/>
         <v>343.60099999999989</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>583.41300000000001</v>
+      </c>
+      <c r="J33">
+        <v>583.09</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>0.32299999999997908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1982.5070000000001</v>
       </c>
@@ -12041,8 +13793,21 @@
         <f t="shared" si="3"/>
         <v>364.47199999999975</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="I34">
+        <v>657.06100000000004</v>
+      </c>
+      <c r="J34">
+        <v>641.399</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>15.662000000000035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2040.816</v>
       </c>
@@ -12063,8 +13828,21 @@
         <f t="shared" si="3"/>
         <v>384.94299999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="I35">
+        <v>729.50599999999997</v>
+      </c>
+      <c r="J35">
+        <v>699.70799999999997</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>29.798000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2099.125</v>
       </c>
@@ -12085,8 +13863,21 @@
         <f t="shared" si="3"/>
         <v>349.82400000000007</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>671.24099999999999</v>
+      </c>
+      <c r="J36">
+        <v>758.01700000000005</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>-86.776000000000067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2157.4340000000002</v>
       </c>
@@ -12107,8 +13898,21 @@
         <f t="shared" si="3"/>
         <v>323.54599999999982</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>734.9</v>
+      </c>
+      <c r="J37">
+        <v>816.327</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>-81.427000000000021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2215.7429999999999</v>
       </c>
@@ -12129,8 +13933,21 @@
         <f t="shared" si="3"/>
         <v>305.55099999999993</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>793.44299999999998</v>
+      </c>
+      <c r="J38">
+        <v>874.63599999999997</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>-81.192999999999984</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2274.0520000000001</v>
       </c>
@@ -12151,8 +13968,21 @@
         <f t="shared" si="3"/>
         <v>316.41300000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>853.83799999999997</v>
+      </c>
+      <c r="J39">
+        <v>932.94500000000005</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>-79.107000000000085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2332.3620000000001</v>
       </c>
@@ -12173,8 +14003,21 @@
         <f t="shared" si="3"/>
         <v>307.82899999999972</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>17</v>
+      </c>
+      <c r="I40">
+        <v>924.476</v>
+      </c>
+      <c r="J40">
+        <v>991.25400000000002</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>-66.77800000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2390.6709999999998</v>
       </c>
@@ -12195,8 +14038,21 @@
         <f t="shared" si="3"/>
         <v>319.94500000000016</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>18</v>
+      </c>
+      <c r="I41">
+        <v>988.66700000000003</v>
+      </c>
+      <c r="J41">
+        <v>1049.5630000000001</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>-60.896000000000072</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2448.98</v>
       </c>
@@ -12217,8 +14073,21 @@
         <f t="shared" si="3"/>
         <v>314.49400000000014</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <v>1047.231</v>
+      </c>
+      <c r="J42">
+        <v>1107.8720000000001</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>-60.641000000000076</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2507.2890000000002</v>
       </c>
@@ -12239,8 +14108,21 @@
         <f t="shared" si="3"/>
         <v>337.73199999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>1107.211</v>
+      </c>
+      <c r="J43">
+        <v>1166.181</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>-58.970000000000027</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2565.598</v>
       </c>
@@ -12261,8 +14143,21 @@
         <f t="shared" si="3"/>
         <v>364.45299999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>21</v>
+      </c>
+      <c r="I44">
+        <v>1176.96</v>
+      </c>
+      <c r="J44">
+        <v>1224.49</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>-47.529999999999973</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2623.9070000000002</v>
       </c>
@@ -12280,8 +14175,21 @@
         <f t="shared" si="3"/>
         <v>426.52700000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>22</v>
+      </c>
+      <c r="I45">
+        <v>1224.5540000000001</v>
+      </c>
+      <c r="J45">
+        <v>1282.799</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>-58.244999999999891</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2915.4520000000002</v>
       </c>
@@ -12295,8 +14203,21 @@
         <f t="shared" si="3"/>
         <v>364.54899999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>23</v>
+      </c>
+      <c r="I46">
+        <v>1267.5139999999999</v>
+      </c>
+      <c r="J46">
+        <v>1341.1079999999999</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>-73.594000000000051</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3206.9969999999998</v>
       </c>
@@ -12310,8 +14231,21 @@
         <f t="shared" si="3"/>
         <v>358.19399999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>24</v>
+      </c>
+      <c r="I47">
+        <v>1353.7159999999999</v>
+      </c>
+      <c r="J47">
+        <v>1399.4169999999999</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>-45.701000000000022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3498.5419999999999</v>
       </c>
@@ -12325,8 +14259,21 @@
         <f t="shared" si="3"/>
         <v>385.74000000000024</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>25</v>
+      </c>
+      <c r="I48">
+        <v>1406.0409999999999</v>
+      </c>
+      <c r="J48">
+        <v>1457.7260000000001</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>-51.685000000000173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3790.087</v>
       </c>
@@ -12340,8 +14287,21 @@
         <f t="shared" si="3"/>
         <v>375.58000000000038</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>26</v>
+      </c>
+      <c r="I49">
+        <v>1488.6769999999999</v>
+      </c>
+      <c r="J49">
+        <v>1516.0350000000001</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>-27.358000000000175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4081.6329999999998</v>
       </c>
@@ -12355,11 +14315,816 @@
         <f t="shared" si="3"/>
         <v>416.8119999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>27</v>
+      </c>
+      <c r="I50">
+        <v>1539.425</v>
+      </c>
+      <c r="J50">
+        <v>1574.3440000000001</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>-34.919000000000096</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F51">
         <f>AVERAGE(F10:F46)</f>
         <v>291.87718918918927</v>
+      </c>
+      <c r="H51">
+        <v>28</v>
+      </c>
+      <c r="I51">
+        <v>1608.999</v>
+      </c>
+      <c r="J51">
+        <v>1632.653</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>-23.653999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>29</v>
+      </c>
+      <c r="I52">
+        <v>1667.7570000000001</v>
+      </c>
+      <c r="J52">
+        <v>1690.962</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>-23.204999999999927</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>1734.587</v>
+      </c>
+      <c r="J53">
+        <v>1749.271</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="5"/>
+        <v>-14.683999999999969</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>31</v>
+      </c>
+      <c r="I54">
+        <v>1797.173</v>
+      </c>
+      <c r="J54">
+        <v>1807.58</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="5"/>
+        <v>-10.406999999999925</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>32</v>
+      </c>
+      <c r="I55">
+        <v>1837.8389999999999</v>
+      </c>
+      <c r="J55">
+        <v>1865.8889999999999</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="5"/>
+        <v>-28.049999999999955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>33</v>
+      </c>
+      <c r="I56">
+        <v>1893.3219999999999</v>
+      </c>
+      <c r="J56">
+        <v>1924.1980000000001</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>-30.876000000000204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>34</v>
+      </c>
+      <c r="I57">
+        <v>1944.17</v>
+      </c>
+      <c r="J57">
+        <v>1982.5070000000001</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>-38.336999999999989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>35</v>
+      </c>
+      <c r="I58">
+        <v>2022.5889999999999</v>
+      </c>
+      <c r="J58">
+        <v>2040.816</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>-18.227000000000089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>36</v>
+      </c>
+      <c r="I59">
+        <v>2106.6289999999999</v>
+      </c>
+      <c r="J59">
+        <v>2099.125</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>7.5039999999999054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>37</v>
+      </c>
+      <c r="I60">
+        <v>2172.5059999999999</v>
+      </c>
+      <c r="J60">
+        <v>2157.4340000000002</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>15.071999999999662</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>38</v>
+      </c>
+      <c r="I61">
+        <v>2214.4560000000001</v>
+      </c>
+      <c r="J61">
+        <v>2215.7429999999999</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>-1.2869999999998072</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>39</v>
+      </c>
+      <c r="I62">
+        <v>2287.9580000000001</v>
+      </c>
+      <c r="J62">
+        <v>2274.0520000000001</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>13.905999999999949</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>40</v>
+      </c>
+      <c r="I63">
+        <v>2338.4760000000001</v>
+      </c>
+      <c r="J63">
+        <v>2332.3620000000001</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>6.1140000000000327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>41</v>
+      </c>
+      <c r="I64">
+        <v>2373.0430000000001</v>
+      </c>
+      <c r="J64">
+        <v>2390.6709999999998</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>-17.627999999999702</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>42</v>
+      </c>
+      <c r="I65">
+        <v>2444.9299999999998</v>
+      </c>
+      <c r="J65">
+        <v>2448.98</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>-4.0500000000001819</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>43</v>
+      </c>
+      <c r="I66">
+        <v>2479.7080000000001</v>
+      </c>
+      <c r="J66">
+        <v>2507.2890000000002</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>-27.581000000000131</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>44</v>
+      </c>
+      <c r="I67">
+        <v>2555.8780000000002</v>
+      </c>
+      <c r="J67">
+        <v>2565.598</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>-9.7199999999997999</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>45</v>
+      </c>
+      <c r="I68">
+        <v>2616.6669999999999</v>
+      </c>
+      <c r="J68">
+        <v>2623.9070000000002</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>-7.2400000000002365</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>46</v>
+      </c>
+      <c r="I69">
+        <v>2694.1419999999998</v>
+      </c>
+      <c r="J69">
+        <v>2692.2159999999999</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>1.9259999999999309</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>47</v>
+      </c>
+      <c r="I70">
+        <v>2729.6759999999999</v>
+      </c>
+      <c r="J70">
+        <v>2740.5250000000001</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>-10.84900000000016</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>48</v>
+      </c>
+      <c r="I71">
+        <v>2817.6350000000002</v>
+      </c>
+      <c r="J71">
+        <v>2798.8339999999998</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="5"/>
+        <v>18.801000000000386</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>49</v>
+      </c>
+      <c r="I72">
+        <v>2856.7660000000001</v>
+      </c>
+      <c r="J72">
+        <v>2857.143</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="5"/>
+        <v>-0.37699999999995271</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>50</v>
+      </c>
+      <c r="I73">
+        <v>2872.2530000000002</v>
+      </c>
+      <c r="J73">
+        <v>2915.4520000000002</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="5"/>
+        <v>-43.199000000000069</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>51</v>
+      </c>
+      <c r="I74">
+        <v>2926.6570000000002</v>
+      </c>
+      <c r="J74">
+        <v>2973.761</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="5"/>
+        <v>-47.103999999999814</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>52</v>
+      </c>
+      <c r="I75">
+        <v>2988.2739999999999</v>
+      </c>
+      <c r="J75">
+        <v>3032.07</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="5"/>
+        <v>-43.796000000000276</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>53</v>
+      </c>
+      <c r="I76">
+        <v>3053.7779999999998</v>
+      </c>
+      <c r="J76">
+        <v>3090.3789999999999</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="5"/>
+        <v>-36.601000000000113</v>
+      </c>
+    </row>
+    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>54</v>
+      </c>
+      <c r="I77">
+        <v>3133.05</v>
+      </c>
+      <c r="J77">
+        <v>3148.6880000000001</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="5"/>
+        <v>-15.63799999999992</v>
+      </c>
+    </row>
+    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>55</v>
+      </c>
+      <c r="I78">
+        <v>3176.029</v>
+      </c>
+      <c r="J78">
+        <v>3206.9969999999998</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="5"/>
+        <v>-30.967999999999847</v>
+      </c>
+    </row>
+    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>56</v>
+      </c>
+      <c r="I79">
+        <v>3261.3629999999998</v>
+      </c>
+      <c r="J79">
+        <v>3265.306</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="5"/>
+        <v>-3.943000000000211</v>
+      </c>
+    </row>
+    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>57</v>
+      </c>
+      <c r="I80">
+        <v>3328.0920000000001</v>
+      </c>
+      <c r="J80">
+        <v>3323.6149999999998</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="5"/>
+        <v>4.4770000000003165</v>
+      </c>
+    </row>
+    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>58</v>
+      </c>
+      <c r="I81">
+        <v>3379.0149999999999</v>
+      </c>
+      <c r="J81">
+        <v>3381.924</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="5"/>
+        <v>-2.9090000000001055</v>
+      </c>
+    </row>
+    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>59</v>
+      </c>
+      <c r="I82">
+        <v>3418.8969999999999</v>
+      </c>
+      <c r="J82">
+        <v>3440.2330000000002</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="5"/>
+        <v>-21.33600000000024</v>
+      </c>
+    </row>
+    <row r="83" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>60</v>
+      </c>
+      <c r="I83">
+        <v>3515.067</v>
+      </c>
+      <c r="J83">
+        <v>3498.5419999999999</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="5"/>
+        <v>16.525000000000091</v>
+      </c>
+    </row>
+    <row r="84" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>61</v>
+      </c>
+      <c r="I84">
+        <v>3521.5239999999999</v>
+      </c>
+      <c r="J84">
+        <v>3556.8510000000001</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="5"/>
+        <v>-35.327000000000226</v>
+      </c>
+    </row>
+    <row r="85" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>62</v>
+      </c>
+      <c r="I85">
+        <v>3590.627</v>
+      </c>
+      <c r="J85">
+        <v>3615.16</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="5"/>
+        <v>-24.532999999999902</v>
+      </c>
+    </row>
+    <row r="86" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>63</v>
+      </c>
+      <c r="I86">
+        <v>3653.93</v>
+      </c>
+      <c r="J86">
+        <v>3673.4690000000001</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="5"/>
+        <v>-19.539000000000215</v>
+      </c>
+    </row>
+    <row r="87" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>64</v>
+      </c>
+      <c r="I87">
+        <v>3710.3319999999999</v>
+      </c>
+      <c r="J87">
+        <v>3731.7779999999998</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="5"/>
+        <v>-21.445999999999913</v>
+      </c>
+    </row>
+    <row r="88" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>65</v>
+      </c>
+      <c r="I88">
+        <v>3816.2510000000002</v>
+      </c>
+      <c r="J88">
+        <v>3790.087</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>26.164000000000215</v>
+      </c>
+    </row>
+    <row r="89" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>66</v>
+      </c>
+      <c r="I89">
+        <v>3848.6979999999999</v>
+      </c>
+      <c r="J89">
+        <v>3848.3969999999999</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="5"/>
+        <v>0.30099999999993088</v>
+      </c>
+    </row>
+    <row r="90" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>67</v>
+      </c>
+      <c r="I90">
+        <v>3909.5279999999998</v>
+      </c>
+      <c r="J90">
+        <v>3906.7060000000001</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="5"/>
+        <v>2.8219999999996617</v>
+      </c>
+    </row>
+    <row r="91" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>68</v>
+      </c>
+      <c r="I91">
+        <v>3942.605</v>
+      </c>
+      <c r="J91">
+        <v>3965.0149999999999</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="5"/>
+        <v>-22.409999999999854</v>
+      </c>
+    </row>
+    <row r="92" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>69</v>
+      </c>
+      <c r="I92">
+        <v>3961.5720000000001</v>
+      </c>
+      <c r="J92">
+        <v>4023.3240000000001</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="5"/>
+        <v>-61.751999999999953</v>
+      </c>
+    </row>
+    <row r="93" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>70</v>
+      </c>
+      <c r="I93">
+        <v>4069.2829999999999</v>
+      </c>
+      <c r="J93">
+        <v>4081.6329999999998</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ref="K93:K103" si="6">I93-J93</f>
+        <v>-12.349999999999909</v>
+      </c>
+    </row>
+    <row r="94" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>71</v>
+      </c>
+      <c r="I94">
+        <v>4147.7920000000004</v>
+      </c>
+      <c r="J94">
+        <v>4139.942</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="6"/>
+        <v>7.8500000000003638</v>
+      </c>
+    </row>
+    <row r="95" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>72</v>
+      </c>
+      <c r="I95">
+        <v>4219.3500000000004</v>
+      </c>
+      <c r="J95">
+        <v>4198.2510000000002</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="6"/>
+        <v>21.09900000000016</v>
+      </c>
+    </row>
+    <row r="96" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>73</v>
+      </c>
+      <c r="I96">
+        <v>4302.7489999999998</v>
+      </c>
+      <c r="J96">
+        <v>4256.5600000000004</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="6"/>
+        <v>46.188999999999396</v>
+      </c>
+    </row>
+    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>74</v>
+      </c>
+      <c r="I97">
+        <v>4327.2520000000004</v>
+      </c>
+      <c r="J97">
+        <v>4314.8689999999997</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="6"/>
+        <v>12.38300000000072</v>
+      </c>
+    </row>
+    <row r="98" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>75</v>
+      </c>
+      <c r="I98">
+        <v>4388.4650000000001</v>
+      </c>
+      <c r="J98">
+        <v>4373.1779999999999</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="6"/>
+        <v>15.287000000000262</v>
+      </c>
+    </row>
+    <row r="99" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>76</v>
+      </c>
+      <c r="I99">
+        <v>4453.95</v>
+      </c>
+      <c r="J99">
+        <v>4431.4870000000001</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="6"/>
+        <v>22.462999999999738</v>
+      </c>
+    </row>
+    <row r="100" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>77</v>
+      </c>
+      <c r="I100">
+        <v>4530.759</v>
+      </c>
+      <c r="J100">
+        <v>4489.7960000000003</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="6"/>
+        <v>40.962999999999738</v>
+      </c>
+    </row>
+    <row r="101" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>78</v>
+      </c>
+      <c r="I101">
+        <v>4518.6769999999997</v>
+      </c>
+      <c r="J101">
+        <v>4548.1049999999996</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="6"/>
+        <v>-29.427999999999884</v>
+      </c>
+    </row>
+    <row r="102" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>79</v>
+      </c>
+      <c r="I102">
+        <v>9718.2630000000008</v>
+      </c>
+      <c r="J102">
+        <v>4606.4139999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>80</v>
+      </c>
+      <c r="I103">
+        <v>4638.7939999999999</v>
+      </c>
+      <c r="J103">
+        <v>4664.723</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="6"/>
+        <v>-25.929000000000087</v>
       </c>
     </row>
   </sheetData>

--- a/50kHz measurments.xlsx
+++ b/50kHz measurments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmall1\Documents\GitHub\PROJ324_SK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiera\Documents\GitHub\PROJ324_SK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B7164A-95A7-4E07-8CB8-0B1DFFB2BC2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2C6FC8-A157-4B0B-B30A-03C4A198B72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
   </bookViews>
@@ -16,30 +16,51 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>1cm is 58.309</t>
   </si>
   <si>
     <t>First corrections</t>
   </si>
+  <si>
+    <t>40k</t>
+  </si>
+  <si>
+    <t>ACTUAL DISTANCE (CM)</t>
+  </si>
+  <si>
+    <t>MEASURED DISTANCE(CM)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,13 +68,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,13 +108,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -912,6 +961,497 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph Showing Measured Distance Compared to Actual Distance Using 25kHz transducers</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12815631379410908"/>
+          <c:y val="1.7877092875016598E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4360778976701986E-2"/>
+          <c:y val="0.16738917961973876"/>
+          <c:w val="0.90002605229901822"/>
+          <c:h val="0.70626951054771936"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$5:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$5:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.3339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.287000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.569000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.412000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B37C-4E9B-984C-CC1AA52FE0E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1916103088"/>
+        <c:axId val="1916103568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1916103088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Acual Distance (CM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916103568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1916103568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Measured Distance (CM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916103088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -6294,7 +6834,934 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Actual Distance Vs. Measured Distance With Initial compensation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> code implemented</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual Distance Vs. Measured Distance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$28:$H$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$28:$G$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>5.0839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7039999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.606</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.644</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.855</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.957000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.957999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.986999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.186</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.998999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.736000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.114999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.532</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.402999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.591999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.748000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30.823</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.521000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.468600000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.689</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.133000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37.26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39.235999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.106000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40.698999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.529000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44.877000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46.206000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46.811999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48.32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48.991999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49.261000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50.194000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>52.384</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53.73</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55.930999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57.078000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>57.957999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>58.631999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>60.392000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>61.58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63.63</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65.447000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66.007000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67.052999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>67.614000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69.790999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71.114000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72.355999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73.784000000000006</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74.212000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75.263000000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76.387</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77.704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>77.495000000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>79.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A038-438B-B32D-9C206592B3FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1143863968"/>
+        <c:axId val="1143859648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1143863968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="85"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Actual Distance (CM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143859648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1143859648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Measured Distance (CM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143863968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6614,6 +8081,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7130,6 +8637,526 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10750,6 +12777,526 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -11156,6 +13703,305 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604836</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2617EFA3-61D4-D74C-05E6-61ABDA24E32A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C07734-EDB7-9791-49B8-3A61AC6E5D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="12096750"/>
+          <a:ext cx="581025" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>-250us</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFF7CE9-C4A5-FD2C-AECB-F291305204DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12944475" y="12068175"/>
+          <a:ext cx="590550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>-350us</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29604C29-439F-7CDE-2D4D-0895F46E6EA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18097499" y="12077700"/>
+          <a:ext cx="600075" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>-400us</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0648230-00DA-063F-FC5B-C101BC0AD859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11458,8 +14304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288C5F0-AF61-4E26-9BFE-C4E1DAB9DA45}">
   <dimension ref="A2:V47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12741,2390 +15587,2799 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A581574-D065-4677-A136-CE1820FEC8BC}">
   <dimension ref="A5:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>291.54500000000002</v>
+      </c>
+      <c r="B5">
+        <v>503.45499999999998</v>
+      </c>
+      <c r="C5">
+        <f>B5-A5</f>
+        <v>211.90999999999997</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>291.54500000000002</v>
+      </c>
+      <c r="J5">
+        <v>528.43399999999997</v>
+      </c>
+      <c r="K5">
+        <f>J5-I5</f>
+        <v>236.88899999999995</v>
+      </c>
+      <c r="L5">
+        <v>508.08199999999999</v>
+      </c>
+      <c r="M5">
+        <f>L5-I5</f>
+        <v>216.53699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>349.85399999999998</v>
+      </c>
+      <c r="B6">
+        <v>546.77800000000002</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C44" si="0">B6-A6</f>
+        <v>196.92400000000004</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>583.09</v>
+      </c>
+      <c r="J6">
+        <v>830.47500000000002</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K16" si="1">J6-I6</f>
+        <v>247.38499999999999</v>
+      </c>
+      <c r="L6">
+        <v>833.34400000000005</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M16" si="2">L6-I6</f>
+        <v>250.25400000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>408.16300000000001</v>
+      </c>
+      <c r="B7">
+        <v>597.07100000000003</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>188.90800000000002</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>874.63599999999997</v>
+      </c>
+      <c r="J7">
+        <v>1128.7070000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>254.07100000000014</v>
+      </c>
+      <c r="L7">
+        <v>1147.9280000000001</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>273.29200000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>466.47199999999998</v>
+      </c>
+      <c r="B8">
+        <v>648.91899999999998</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>182.447</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>1166.181</v>
+      </c>
+      <c r="J8">
+        <v>1463.9690000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>297.78800000000001</v>
+      </c>
+      <c r="L8">
+        <v>1483.3019999999999</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>317.12099999999987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>524.78099999999995</v>
+      </c>
+      <c r="B9">
+        <v>706.68600000000004</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>181.90500000000009</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>1457.7260000000001</v>
+      </c>
+      <c r="J9">
+        <v>1754.7170000000001</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>296.99099999999999</v>
+      </c>
+      <c r="L9">
+        <v>1779.241</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>321.51499999999987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>583.09</v>
+      </c>
+      <c r="B10">
+        <v>733.34500000000003</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>150.255</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>778.19200000000001</v>
+      </c>
+      <c r="F10">
+        <f>E10-A10</f>
+        <v>195.10199999999998</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>1749.271</v>
+      </c>
+      <c r="J10">
+        <v>2091.2919999999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>342.02099999999996</v>
+      </c>
+      <c r="L10">
+        <v>2055.13</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>305.85900000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>641.399</v>
+      </c>
+      <c r="B11">
+        <v>834.77800000000002</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>193.37900000000002</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>857.91</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F50" si="3">E11-A11</f>
+        <v>216.51099999999997</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>2040.816</v>
+      </c>
+      <c r="J11">
+        <v>2378.5050000000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>337.68900000000008</v>
+      </c>
+      <c r="L11">
+        <v>2356.6669999999999</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>315.85099999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>699.70799999999997</v>
+      </c>
+      <c r="B12">
+        <v>916.14099999999996</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>216.43299999999999</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>930.92</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>231.21199999999999</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>2332.3620000000001</v>
+      </c>
+      <c r="J12">
+        <v>2697.9479999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>365.58599999999979</v>
+      </c>
+      <c r="L12">
+        <v>2665.9279999999999</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>333.5659999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>758.01700000000005</v>
+      </c>
+      <c r="B13">
+        <v>997.43399999999997</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>239.41699999999992</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>998.04</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>240.02299999999991</v>
+      </c>
+      <c r="H13">
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <v>2623.9070000000002</v>
+      </c>
+      <c r="J13">
+        <v>2993.0309999999999</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>369.1239999999998</v>
+      </c>
+      <c r="L13">
+        <v>2974.011</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>350.10399999999981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>816.327</v>
+      </c>
+      <c r="B14">
+        <v>1067.5160000000001</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>251.18900000000008</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>1060.576</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>244.24900000000002</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>2915.4520000000002</v>
+      </c>
+      <c r="J14">
+        <v>3335.5059999999999</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>420.05399999999963</v>
+      </c>
+      <c r="L14">
+        <v>3235.2310000000002</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>319.779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>874.63599999999997</v>
+      </c>
+      <c r="B15">
+        <v>1132.9179999999999</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>258.28199999999993</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>1119.93</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>245.2940000000001</v>
+      </c>
+      <c r="H15">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>3206.9969999999998</v>
+      </c>
+      <c r="J15">
+        <v>3667.7449999999999</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>460.74800000000005</v>
+      </c>
+      <c r="L15">
+        <v>3589.5340000000001</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>382.53700000000026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>932.94500000000005</v>
+      </c>
+      <c r="B16">
+        <v>1193.384</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>260.43899999999996</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>1155.1110000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>222.16600000000005</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>3498.5419999999999</v>
+      </c>
+      <c r="J16">
+        <v>3896.4459999999999</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>397.904</v>
+      </c>
+      <c r="L16">
+        <v>3891.3440000000001</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>392.80200000000013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>991.25400000000002</v>
+      </c>
+      <c r="B17">
+        <v>1247.213</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>255.95899999999995</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>1196.798</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>205.54399999999998</v>
+      </c>
+      <c r="H17">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>3790.087</v>
+      </c>
+      <c r="J17">
+        <v>4517.4629999999997</v>
+      </c>
+      <c r="K17">
+        <f>J17-I18</f>
+        <v>436.29999999999973</v>
+      </c>
+      <c r="L17">
+        <v>4148.09</v>
+      </c>
+      <c r="M17">
+        <f>L17-I17</f>
+        <v>358.00300000000016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1049.5630000000001</v>
+      </c>
+      <c r="B18">
+        <v>1292.6569999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>243.09399999999982</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>1268.2919999999999</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>218.72899999999981</v>
+      </c>
+      <c r="H18">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>4081.163</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGE(K5:K17)</f>
+        <v>343.27307692307687</v>
+      </c>
+      <c r="L18">
+        <v>4451.6440000000002</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M23" si="4">L18-I18</f>
+        <v>370.48100000000022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1107.8720000000001</v>
+      </c>
+      <c r="B19">
+        <v>1342.162</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>234.28999999999996</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>1323.758</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>215.88599999999997</v>
+      </c>
+      <c r="H19">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <v>4373.1790000000001</v>
+      </c>
+      <c r="L19">
+        <v>4787.2309999999998</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>414.05199999999968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1166.181</v>
+      </c>
+      <c r="B20">
+        <v>1406.433</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>240.25199999999995</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1418.777</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>252.596</v>
+      </c>
+      <c r="H20">
+        <v>80</v>
+      </c>
+      <c r="I20">
+        <v>4664.723</v>
+      </c>
+      <c r="L20">
+        <v>5038.9350000000004</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>374.21200000000044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1224.49</v>
+      </c>
+      <c r="B21">
+        <v>1468.3530000000001</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>243.86300000000006</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1474.5650000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>250.07500000000005</v>
+      </c>
+      <c r="H21">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>4956.268</v>
+      </c>
+      <c r="L21">
+        <v>5298.85</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>342.58200000000033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1282.799</v>
+      </c>
+      <c r="B22">
+        <v>1558.33</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>275.53099999999995</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1568.586</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>285.78700000000003</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1341.1079999999999</v>
+      </c>
+      <c r="B23">
+        <v>1639.424</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>298.31600000000003</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1639.94</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>298.83200000000011</v>
+      </c>
+      <c r="H23">
+        <v>95</v>
+      </c>
+      <c r="I23">
+        <v>5539.3590000000004</v>
+      </c>
+      <c r="L23">
+        <v>5902.0910000000003</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>362.73199999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1399.4169999999999</v>
+      </c>
+      <c r="B24">
+        <v>1707.576</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>308.15900000000011</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1704.5150000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>305.09800000000018</v>
+      </c>
+      <c r="L24">
+        <f>AVERAGE(L5:L23)</f>
+        <v>3119.254611111111</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(M5:M23)</f>
+        <v>315.85678947368427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1457.7260000000001</v>
+      </c>
+      <c r="B25">
+        <v>1781.7059999999999</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>323.97999999999979</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1773.2639999999999</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>315.53799999999978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1516.0350000000001</v>
+      </c>
+      <c r="B26">
+        <v>1833.627</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>317.59199999999987</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>1817.5250000000001</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>301.49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1574.3440000000001</v>
+      </c>
+      <c r="B27">
+        <v>1884.768</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>310.42399999999998</v>
+      </c>
+      <c r="D27">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1874.587</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>300.24299999999994</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1632.653</v>
+      </c>
+      <c r="B28">
+        <v>1941.19</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>308.53700000000003</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>1911.2529999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>278.59999999999991</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5.0839999999999996</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>296.524</v>
+      </c>
+      <c r="J28">
+        <v>291.54500000000002</v>
+      </c>
+      <c r="K28">
+        <f>I28-J28</f>
+        <v>4.978999999999985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1690.962</v>
+      </c>
+      <c r="B29">
+        <v>1951.6659999999999</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>260.70399999999995</v>
+      </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>1954.374</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>263.41200000000003</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5.7039999999999997</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>332.49599999999998</v>
+      </c>
+      <c r="J29">
+        <v>349.85399999999998</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K92" si="5">I29-J29</f>
+        <v>-17.358000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1749.271</v>
+      </c>
+      <c r="B30">
+        <v>2033.566</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>284.29500000000007</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>2033.759</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>284.48800000000006</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6.8540000000000001</v>
+      </c>
+      <c r="H30">
+        <v>7</v>
+      </c>
+      <c r="I30">
+        <v>339.55599999999998</v>
+      </c>
+      <c r="J30">
+        <v>408.16300000000001</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>-68.607000000000028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1807.58</v>
+      </c>
+      <c r="B31">
+        <v>2091.2420000000002</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>283.66200000000026</v>
+      </c>
+      <c r="D31">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>2091.7370000000001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>284.15700000000015</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7.8460000000000001</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>457.44499999999999</v>
+      </c>
+      <c r="J31">
+        <v>466.47199999999998</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>-9.0269999999999868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1865.8889999999999</v>
+      </c>
+      <c r="B32">
+        <v>2159.808</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>293.9190000000001</v>
+      </c>
+      <c r="D32">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>2186.4340000000002</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>320.5450000000003</v>
+      </c>
+      <c r="G32" s="1">
+        <v>8.9540000000000006</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>522.19100000000003</v>
+      </c>
+      <c r="J32">
+        <v>524.78099999999995</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>-2.5899999999999181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1924.1980000000001</v>
+      </c>
+      <c r="B33">
+        <v>2219.221</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>295.02299999999991</v>
+      </c>
+      <c r="D33">
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <v>2267.799</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>343.60099999999989</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10.004</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33">
+        <v>583.41300000000001</v>
+      </c>
+      <c r="J33">
+        <v>583.09</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>0.32299999999997908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1982.5070000000001</v>
+      </c>
+      <c r="B34">
+        <v>2273.4839999999999</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>290.97699999999986</v>
+      </c>
+      <c r="D34">
+        <v>34</v>
+      </c>
+      <c r="E34">
+        <v>2346.9789999999998</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>364.47199999999975</v>
+      </c>
+      <c r="G34" s="1">
+        <v>11.27</v>
+      </c>
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="I34">
+        <v>657.06100000000004</v>
+      </c>
+      <c r="J34">
+        <v>641.399</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>15.662000000000035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2040.816</v>
+      </c>
+      <c r="B35">
+        <v>2412.7370000000001</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>371.92100000000005</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>2425.759</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>384.94299999999998</v>
+      </c>
+      <c r="G35" s="2">
+        <v>12.512</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="I35">
+        <v>729.50599999999997</v>
+      </c>
+      <c r="J35">
+        <v>699.70799999999997</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>29.798000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2099.125</v>
+      </c>
+      <c r="B36">
+        <v>2447.7820000000002</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>348.65700000000015</v>
+      </c>
+      <c r="D36">
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>2448.9490000000001</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>349.82400000000007</v>
+      </c>
+      <c r="G36" s="2">
+        <v>11.51</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>671.24099999999999</v>
+      </c>
+      <c r="J36">
+        <v>758.01700000000005</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>-86.776000000000067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2157.4340000000002</v>
+      </c>
+      <c r="B37">
+        <v>2539.86</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>382.42599999999993</v>
+      </c>
+      <c r="D37">
+        <v>37</v>
+      </c>
+      <c r="E37">
+        <v>2480.98</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>323.54599999999982</v>
+      </c>
+      <c r="G37" s="2">
+        <v>12.605</v>
+      </c>
+      <c r="H37">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>734.9</v>
+      </c>
+      <c r="J37">
+        <v>816.327</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>-81.427000000000021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2215.7429999999999</v>
+      </c>
+      <c r="B38">
+        <v>2571.6660000000002</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>355.92300000000023</v>
+      </c>
+      <c r="D38">
+        <v>38</v>
+      </c>
+      <c r="E38">
+        <v>2521.2939999999999</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>305.55099999999993</v>
+      </c>
+      <c r="G38" s="2">
+        <v>13.606</v>
+      </c>
+      <c r="H38">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>793.44299999999998</v>
+      </c>
+      <c r="J38">
+        <v>874.63599999999997</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>-81.192999999999984</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2274.0520000000001</v>
+      </c>
+      <c r="B39">
+        <v>2611.384</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>337.33199999999988</v>
+      </c>
+      <c r="D39">
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>2590.4650000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>316.41300000000001</v>
+      </c>
+      <c r="G39" s="2">
+        <v>14.644</v>
+      </c>
+      <c r="H39">
+        <v>16</v>
+      </c>
+      <c r="I39">
+        <v>853.83799999999997</v>
+      </c>
+      <c r="J39">
+        <v>932.94500000000005</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>-79.107000000000085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2332.3620000000001</v>
+      </c>
+      <c r="B40">
+        <v>2646.212</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>313.84999999999991</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>2640.1909999999998</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>307.82899999999972</v>
+      </c>
+      <c r="G40" s="2">
+        <v>15.855</v>
+      </c>
+      <c r="H40">
+        <v>17</v>
+      </c>
+      <c r="I40">
+        <v>924.476</v>
+      </c>
+      <c r="J40">
+        <v>991.25400000000002</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>-66.77800000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2390.6709999999998</v>
+      </c>
+      <c r="B41">
+        <v>2707.223</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>316.55200000000013</v>
+      </c>
+      <c r="D41">
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>2710.616</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>319.94500000000016</v>
+      </c>
+      <c r="G41" s="2">
+        <v>16.957000000000001</v>
+      </c>
+      <c r="H41">
+        <v>18</v>
+      </c>
+      <c r="I41">
+        <v>988.66700000000003</v>
+      </c>
+      <c r="J41">
+        <v>1049.5630000000001</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>-60.896000000000072</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2448.98</v>
+      </c>
+      <c r="B42">
+        <v>2785.7249999999999</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>336.74499999999989</v>
+      </c>
+      <c r="D42">
+        <v>42</v>
+      </c>
+      <c r="E42">
+        <v>2763.4740000000002</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>314.49400000000014</v>
+      </c>
+      <c r="G42" s="2">
+        <v>17.957999999999998</v>
+      </c>
+      <c r="H42">
+        <v>19</v>
+      </c>
+      <c r="I42">
+        <v>1047.231</v>
+      </c>
+      <c r="J42">
+        <v>1107.8720000000001</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>-60.641000000000076</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2507.2890000000002</v>
+      </c>
+      <c r="B43">
+        <v>2855.88</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>348.59099999999989</v>
+      </c>
+      <c r="D43">
+        <v>43</v>
+      </c>
+      <c r="E43">
+        <v>2845.0210000000002</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>337.73199999999997</v>
+      </c>
+      <c r="G43" s="2">
+        <v>18.986999999999998</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>1107.211</v>
+      </c>
+      <c r="J43">
+        <v>1166.181</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>-58.970000000000027</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2565.598</v>
+      </c>
+      <c r="B44">
+        <v>2956.364</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>390.76600000000008</v>
+      </c>
+      <c r="D44">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>2930.0509999999999</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>364.45299999999997</v>
+      </c>
+      <c r="G44" s="2">
+        <v>20.186</v>
+      </c>
+      <c r="H44">
+        <v>21</v>
+      </c>
+      <c r="I44">
+        <v>1176.96</v>
+      </c>
+      <c r="J44">
+        <v>1224.49</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>-47.529999999999973</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2623.9070000000002</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGE(C5:C44)</f>
+        <v>277.57070000000004</v>
+      </c>
+      <c r="D45">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>3050.4340000000002</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>426.52700000000004</v>
+      </c>
+      <c r="G45" s="2">
+        <v>20.998999999999999</v>
+      </c>
+      <c r="H45">
+        <v>22</v>
+      </c>
+      <c r="I45">
+        <v>1224.5540000000001</v>
+      </c>
+      <c r="J45">
+        <v>1282.799</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>-58.244999999999891</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2915.4520000000002</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>3280.0010000000002</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>364.54899999999998</v>
+      </c>
+      <c r="G46" s="2">
+        <v>21.736000000000001</v>
+      </c>
+      <c r="H46">
+        <v>23</v>
+      </c>
+      <c r="I46">
+        <v>1267.5139999999999</v>
+      </c>
+      <c r="J46">
+        <v>1341.1079999999999</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>-73.594000000000051</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3206.9969999999998</v>
+      </c>
+      <c r="D47">
+        <v>55</v>
+      </c>
+      <c r="E47">
+        <v>3565.1909999999998</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>358.19399999999996</v>
+      </c>
+      <c r="G47" s="2">
+        <v>23.213999999999999</v>
+      </c>
+      <c r="H47">
+        <v>24</v>
+      </c>
+      <c r="I47">
+        <v>1353.7159999999999</v>
+      </c>
+      <c r="J47">
+        <v>1399.4169999999999</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>-45.701000000000022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3498.5419999999999</v>
+      </c>
+      <c r="D48">
+        <v>60</v>
+      </c>
+      <c r="E48">
+        <v>3884.2820000000002</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>385.74000000000024</v>
+      </c>
+      <c r="G48" s="2">
+        <v>24.114999999999998</v>
+      </c>
+      <c r="H48">
+        <v>25</v>
+      </c>
+      <c r="I48">
+        <v>1406.0409999999999</v>
+      </c>
+      <c r="J48">
+        <v>1457.7260000000001</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>-51.685000000000173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3790.087</v>
+      </c>
+      <c r="D49">
+        <v>65</v>
+      </c>
+      <c r="E49">
+        <v>4165.6670000000004</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>375.58000000000038</v>
+      </c>
+      <c r="G49" s="1">
+        <v>25.532</v>
+      </c>
+      <c r="H49">
+        <v>26</v>
+      </c>
+      <c r="I49">
+        <v>1488.6769999999999</v>
+      </c>
+      <c r="J49">
+        <v>1516.0350000000001</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>-27.358000000000175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4081.6329999999998</v>
+      </c>
+      <c r="D50">
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>4498.4449999999997</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>416.8119999999999</v>
+      </c>
+      <c r="G50" s="2">
+        <v>26.402999999999999</v>
+      </c>
+      <c r="H50">
+        <v>27</v>
+      </c>
+      <c r="I50">
+        <v>1539.425</v>
+      </c>
+      <c r="J50">
+        <v>1574.3440000000001</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>-34.919000000000096</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>AVERAGE(F10:F46)</f>
+        <v>291.87718918918927</v>
+      </c>
+      <c r="G51" s="1">
+        <v>27.591999999999999</v>
+      </c>
+      <c r="H51">
+        <v>28</v>
+      </c>
+      <c r="I51">
+        <v>1608.999</v>
+      </c>
+      <c r="J51">
+        <v>1632.653</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>-23.653999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="H52">
+        <v>29</v>
+      </c>
+      <c r="I52">
+        <v>1667.7570000000001</v>
+      </c>
+      <c r="J52">
+        <v>1690.962</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>-23.204999999999927</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G53" s="1">
+        <v>29.748000000000001</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>1734.587</v>
+      </c>
+      <c r="J53">
+        <v>1749.271</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="5"/>
+        <v>-14.683999999999969</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G54" s="1">
+        <v>30.823</v>
+      </c>
+      <c r="H54">
+        <v>31</v>
+      </c>
+      <c r="I54">
+        <v>1797.173</v>
+      </c>
+      <c r="J54">
+        <v>1807.58</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="5"/>
+        <v>-10.406999999999925</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G55" s="1">
+        <v>31.521000000000001</v>
+      </c>
+      <c r="H55">
+        <v>32</v>
+      </c>
+      <c r="I55">
+        <v>1837.8389999999999</v>
+      </c>
+      <c r="J55">
+        <v>1865.8889999999999</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="5"/>
+        <v>-28.049999999999955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>32.468600000000002</v>
+      </c>
+      <c r="H56">
+        <v>33</v>
+      </c>
+      <c r="I56">
+        <v>1893.3219999999999</v>
+      </c>
+      <c r="J56">
+        <v>1924.1980000000001</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>-30.876000000000204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G57" s="2">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="H57">
+        <v>34</v>
+      </c>
+      <c r="I57">
+        <v>1944.17</v>
+      </c>
+      <c r="J57">
+        <v>1982.5070000000001</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>-38.336999999999989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G58" s="1">
+        <v>34.689</v>
+      </c>
+      <c r="H58">
+        <v>35</v>
+      </c>
+      <c r="I58">
+        <v>2022.5889999999999</v>
+      </c>
+      <c r="J58">
+        <v>2040.816</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>-18.227000000000089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G59" s="1">
+        <v>36.133000000000003</v>
+      </c>
+      <c r="H59">
+        <v>36</v>
+      </c>
+      <c r="I59">
+        <v>2106.6289999999999</v>
+      </c>
+      <c r="J59">
+        <v>2099.125</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>7.5039999999999054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G60" s="1">
+        <v>37.26</v>
+      </c>
+      <c r="H60">
+        <v>37</v>
+      </c>
+      <c r="I60">
+        <v>2172.5059999999999</v>
+      </c>
+      <c r="J60">
+        <v>2157.4340000000002</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>15.071999999999662</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G61" s="1">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="H61">
+        <v>38</v>
+      </c>
+      <c r="I61">
+        <v>2214.4560000000001</v>
+      </c>
+      <c r="J61">
+        <v>2215.7429999999999</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>-1.2869999999998072</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G62" s="1">
+        <v>39.235999999999997</v>
+      </c>
+      <c r="H62">
+        <v>39</v>
+      </c>
+      <c r="I62">
+        <v>2287.9580000000001</v>
+      </c>
+      <c r="J62">
+        <v>2274.0520000000001</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>13.905999999999949</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G63" s="1">
+        <v>40.106000000000002</v>
+      </c>
+      <c r="H63">
+        <v>40</v>
+      </c>
+      <c r="I63">
+        <v>2338.4760000000001</v>
+      </c>
+      <c r="J63">
+        <v>2332.3620000000001</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>6.1140000000000327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G64" s="1">
+        <v>40.698999999999998</v>
+      </c>
+      <c r="H64">
+        <v>41</v>
+      </c>
+      <c r="I64">
+        <v>2373.0430000000001</v>
+      </c>
+      <c r="J64">
+        <v>2390.6709999999998</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>-17.627999999999702</v>
+      </c>
+    </row>
+    <row r="65" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>41.932000000000002</v>
+      </c>
+      <c r="H65">
+        <v>42</v>
+      </c>
+      <c r="I65">
+        <v>2444.9299999999998</v>
+      </c>
+      <c r="J65">
+        <v>2448.98</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>-4.0500000000001819</v>
+      </c>
+    </row>
+    <row r="66" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G66" s="1">
+        <v>42.529000000000003</v>
+      </c>
+      <c r="H66">
+        <v>43</v>
+      </c>
+      <c r="I66">
+        <v>2479.7080000000001</v>
+      </c>
+      <c r="J66">
+        <v>2507.2890000000002</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>-27.581000000000131</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G67" s="1">
+        <v>43.832000000000001</v>
+      </c>
+      <c r="H67">
+        <v>44</v>
+      </c>
+      <c r="I67">
+        <v>2555.8780000000002</v>
+      </c>
+      <c r="J67">
+        <v>2565.598</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>-9.7199999999997999</v>
+      </c>
+    </row>
+    <row r="68" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G68" s="1">
+        <v>44.877000000000002</v>
+      </c>
+      <c r="H68">
+        <v>45</v>
+      </c>
+      <c r="I68">
+        <v>2616.6669999999999</v>
+      </c>
+      <c r="J68">
+        <v>2623.9070000000002</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>-7.2400000000002365</v>
+      </c>
+    </row>
+    <row r="69" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G69" s="1">
+        <v>46.206000000000003</v>
+      </c>
+      <c r="H69">
+        <v>46</v>
+      </c>
+      <c r="I69">
+        <v>2694.1419999999998</v>
+      </c>
+      <c r="J69">
+        <v>2692.2159999999999</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>1.9259999999999309</v>
+      </c>
+    </row>
+    <row r="70" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G70" s="1">
+        <v>46.811999999999998</v>
+      </c>
+      <c r="H70">
+        <v>47</v>
+      </c>
+      <c r="I70">
+        <v>2729.6759999999999</v>
+      </c>
+      <c r="J70">
+        <v>2740.5250000000001</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>-10.84900000000016</v>
+      </c>
+    </row>
+    <row r="71" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G71" s="1">
+        <v>48.32</v>
+      </c>
+      <c r="H71">
+        <v>48</v>
+      </c>
+      <c r="I71">
+        <v>2817.6350000000002</v>
+      </c>
+      <c r="J71">
+        <v>2798.8339999999998</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="5"/>
+        <v>18.801000000000386</v>
+      </c>
+    </row>
+    <row r="72" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G72" s="1">
+        <v>48.991999999999997</v>
+      </c>
+      <c r="H72">
+        <v>49</v>
+      </c>
+      <c r="I72">
+        <v>2856.7660000000001</v>
+      </c>
+      <c r="J72">
+        <v>2857.143</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="5"/>
+        <v>-0.37699999999995271</v>
+      </c>
+    </row>
+    <row r="73" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G73" s="2">
+        <v>49.261000000000003</v>
+      </c>
+      <c r="H73">
+        <v>50</v>
+      </c>
+      <c r="I73">
+        <v>2872.2530000000002</v>
+      </c>
+      <c r="J73">
+        <v>2915.4520000000002</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="5"/>
+        <v>-43.199000000000069</v>
+      </c>
+    </row>
+    <row r="74" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G74" s="2">
+        <v>50.194000000000003</v>
+      </c>
+      <c r="H74">
+        <v>51</v>
+      </c>
+      <c r="I74">
+        <v>2926.6570000000002</v>
+      </c>
+      <c r="J74">
+        <v>2973.761</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="5"/>
+        <v>-47.103999999999814</v>
+      </c>
+    </row>
+    <row r="75" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G75" s="2">
+        <v>51.25</v>
+      </c>
+      <c r="H75">
+        <v>52</v>
+      </c>
+      <c r="I75">
+        <v>2988.2739999999999</v>
+      </c>
+      <c r="J75">
+        <v>3032.07</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="5"/>
+        <v>-43.796000000000276</v>
+      </c>
+    </row>
+    <row r="76" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G76" s="2">
+        <v>52.384</v>
+      </c>
+      <c r="H76">
+        <v>53</v>
+      </c>
+      <c r="I76">
+        <v>3053.7779999999998</v>
+      </c>
+      <c r="J76">
+        <v>3090.3789999999999</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="5"/>
+        <v>-36.601000000000113</v>
+      </c>
+    </row>
+    <row r="77" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G77" s="1">
+        <v>53.73</v>
+      </c>
+      <c r="H77">
+        <v>54</v>
+      </c>
+      <c r="I77">
+        <v>3133.05</v>
+      </c>
+      <c r="J77">
+        <v>3148.6880000000001</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="5"/>
+        <v>-15.63799999999992</v>
+      </c>
+    </row>
+    <row r="78" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G78" s="2">
+        <v>54.466999999999999</v>
+      </c>
+      <c r="H78">
+        <v>55</v>
+      </c>
+      <c r="I78">
+        <v>3176.029</v>
+      </c>
+      <c r="J78">
+        <v>3206.9969999999998</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="5"/>
+        <v>-30.967999999999847</v>
+      </c>
+    </row>
+    <row r="79" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G79" s="1">
+        <v>55.930999999999997</v>
+      </c>
+      <c r="H79">
+        <v>56</v>
+      </c>
+      <c r="I79">
+        <v>3261.3629999999998</v>
+      </c>
+      <c r="J79">
+        <v>3265.306</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="5"/>
+        <v>-3.943000000000211</v>
+      </c>
+    </row>
+    <row r="80" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G80" s="1">
+        <v>57.078000000000003</v>
+      </c>
+      <c r="H80">
+        <v>57</v>
+      </c>
+      <c r="I80">
+        <v>3328.0920000000001</v>
+      </c>
+      <c r="J80">
+        <v>3323.6149999999998</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="5"/>
+        <v>4.4770000000003165</v>
+      </c>
+    </row>
+    <row r="81" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G81" s="1">
+        <v>57.957999999999998</v>
+      </c>
+      <c r="H81">
+        <v>58</v>
+      </c>
+      <c r="I81">
+        <v>3379.0149999999999</v>
+      </c>
+      <c r="J81">
+        <v>3381.924</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="5"/>
+        <v>-2.9090000000001055</v>
+      </c>
+    </row>
+    <row r="82" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G82" s="1">
+        <v>58.631999999999998</v>
+      </c>
+      <c r="H82">
+        <v>59</v>
+      </c>
+      <c r="I82">
+        <v>3418.8969999999999</v>
+      </c>
+      <c r="J82">
+        <v>3440.2330000000002</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="5"/>
+        <v>-21.33600000000024</v>
+      </c>
+    </row>
+    <row r="83" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G83" s="1">
+        <v>60.295000000000002</v>
+      </c>
+      <c r="H83">
+        <v>60</v>
+      </c>
+      <c r="I83">
+        <v>3515.067</v>
+      </c>
+      <c r="J83">
+        <v>3498.5419999999999</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="5"/>
+        <v>16.525000000000091</v>
+      </c>
+    </row>
+    <row r="84" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G84" s="2">
+        <v>60.392000000000003</v>
+      </c>
+      <c r="H84">
+        <v>61</v>
+      </c>
+      <c r="I84">
+        <v>3521.5239999999999</v>
+      </c>
+      <c r="J84">
+        <v>3556.8510000000001</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="5"/>
+        <v>-35.327000000000226</v>
+      </c>
+    </row>
+    <row r="85" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G85" s="1">
+        <v>61.58</v>
+      </c>
+      <c r="H85">
+        <v>62</v>
+      </c>
+      <c r="I85">
+        <v>3590.627</v>
+      </c>
+      <c r="J85">
+        <v>3615.16</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="5"/>
+        <v>-24.532999999999902</v>
+      </c>
+    </row>
+    <row r="86" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G86" s="1">
+        <v>62.667000000000002</v>
+      </c>
+      <c r="H86">
+        <v>63</v>
+      </c>
+      <c r="I86">
+        <v>3653.93</v>
+      </c>
+      <c r="J86">
+        <v>3673.4690000000001</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="5"/>
+        <v>-19.539000000000215</v>
+      </c>
+    </row>
+    <row r="87" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G87" s="1">
+        <v>63.63</v>
+      </c>
+      <c r="H87">
+        <v>64</v>
+      </c>
+      <c r="I87">
+        <v>3710.3319999999999</v>
+      </c>
+      <c r="J87">
+        <v>3731.7779999999998</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="5"/>
+        <v>-21.445999999999913</v>
+      </c>
+    </row>
+    <row r="88" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G88" s="1">
+        <v>65.447000000000003</v>
+      </c>
+      <c r="H88">
+        <v>65</v>
+      </c>
+      <c r="I88">
+        <v>3816.2510000000002</v>
+      </c>
+      <c r="J88">
+        <v>3790.087</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>26.164000000000215</v>
+      </c>
+    </row>
+    <row r="89" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G89" s="1">
+        <v>66.007000000000005</v>
+      </c>
+      <c r="H89">
+        <v>66</v>
+      </c>
+      <c r="I89">
+        <v>3848.6979999999999</v>
+      </c>
+      <c r="J89">
+        <v>3848.3969999999999</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="5"/>
+        <v>0.30099999999993088</v>
+      </c>
+    </row>
+    <row r="90" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G90" s="1">
+        <v>67.052999999999997</v>
+      </c>
+      <c r="H90">
+        <v>67</v>
+      </c>
+      <c r="I90">
+        <v>3909.5279999999998</v>
+      </c>
+      <c r="J90">
+        <v>3906.7060000000001</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="5"/>
+        <v>2.8219999999996617</v>
+      </c>
+    </row>
+    <row r="91" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G91" s="1">
+        <v>67.614000000000004</v>
+      </c>
+      <c r="H91">
+        <v>68</v>
+      </c>
+      <c r="I91">
+        <v>3942.605</v>
+      </c>
+      <c r="J91">
+        <v>3965.0149999999999</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="5"/>
+        <v>-22.409999999999854</v>
+      </c>
+    </row>
+    <row r="92" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G92" s="2">
+        <v>67.935000000000002</v>
+      </c>
+      <c r="H92">
+        <v>69</v>
+      </c>
+      <c r="I92">
+        <v>3961.5720000000001</v>
+      </c>
+      <c r="J92">
+        <v>4023.3240000000001</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="5"/>
+        <v>-61.751999999999953</v>
+      </c>
+    </row>
+    <row r="93" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G93" s="1">
+        <v>69.790999999999997</v>
+      </c>
+      <c r="H93">
+        <v>70</v>
+      </c>
+      <c r="I93">
+        <v>4069.2829999999999</v>
+      </c>
+      <c r="J93">
+        <v>4081.6329999999998</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ref="K93:K103" si="6">I93-J93</f>
+        <v>-12.349999999999909</v>
+      </c>
+    </row>
+    <row r="94" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G94" s="1">
+        <v>71.114000000000004</v>
+      </c>
+      <c r="H94">
+        <v>71</v>
+      </c>
+      <c r="I94">
+        <v>4147.7920000000004</v>
+      </c>
+      <c r="J94">
+        <v>4139.942</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="6"/>
+        <v>7.8500000000003638</v>
+      </c>
+    </row>
+    <row r="95" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G95" s="1">
+        <v>72.355999999999995</v>
+      </c>
+      <c r="H95">
+        <v>72</v>
+      </c>
+      <c r="I95">
+        <v>4219.3500000000004</v>
+      </c>
+      <c r="J95">
+        <v>4198.2510000000002</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="6"/>
+        <v>21.09900000000016</v>
+      </c>
+    </row>
+    <row r="96" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G96" s="2">
+        <v>73.784000000000006</v>
+      </c>
+      <c r="H96">
+        <v>73</v>
+      </c>
+      <c r="I96">
+        <v>4302.7489999999998</v>
+      </c>
+      <c r="J96">
+        <v>4256.5600000000004</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="6"/>
+        <v>46.188999999999396</v>
+      </c>
+    </row>
+    <row r="97" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G97" s="1">
+        <v>74.212000000000003</v>
+      </c>
+      <c r="H97">
+        <v>74</v>
+      </c>
+      <c r="I97">
+        <v>4327.2520000000004</v>
+      </c>
+      <c r="J97">
+        <v>4314.8689999999997</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="6"/>
+        <v>12.38300000000072</v>
+      </c>
+    </row>
+    <row r="98" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G98" s="1">
+        <v>75.263000000000005</v>
+      </c>
+      <c r="H98">
+        <v>75</v>
+      </c>
+      <c r="I98">
+        <v>4388.4650000000001</v>
+      </c>
+      <c r="J98">
+        <v>4373.1779999999999</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="6"/>
+        <v>15.287000000000262</v>
+      </c>
+    </row>
+    <row r="99" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G99" s="1">
+        <v>76.387</v>
+      </c>
+      <c r="H99">
+        <v>76</v>
+      </c>
+      <c r="I99">
+        <v>4453.95</v>
+      </c>
+      <c r="J99">
+        <v>4431.4870000000001</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="6"/>
+        <v>22.462999999999738</v>
+      </c>
+    </row>
+    <row r="100" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G100" s="2">
+        <v>77.704999999999998</v>
+      </c>
+      <c r="H100">
+        <v>77</v>
+      </c>
+      <c r="I100">
+        <v>4530.759</v>
+      </c>
+      <c r="J100">
+        <v>4489.7960000000003</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="6"/>
+        <v>40.962999999999738</v>
+      </c>
+    </row>
+    <row r="101" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G101" s="2">
+        <v>77.495000000000005</v>
+      </c>
+      <c r="H101">
+        <v>78</v>
+      </c>
+      <c r="I101">
+        <v>4518.6769999999997</v>
+      </c>
+      <c r="J101">
+        <v>4548.1049999999996</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="6"/>
+        <v>-29.427999999999884</v>
+      </c>
+    </row>
+    <row r="102" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G102" s="2"/>
+      <c r="H102">
+        <v>79</v>
+      </c>
+      <c r="I102">
+        <v>9718.2630000000008</v>
+      </c>
+      <c r="J102">
+        <v>4606.4139999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G103" s="1">
+        <v>79.55</v>
+      </c>
+      <c r="H103">
+        <v>80</v>
+      </c>
+      <c r="I103">
+        <v>4638.7939999999999</v>
+      </c>
+      <c r="J103">
+        <v>4664.723</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="6"/>
+        <v>-25.929000000000087</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B962BC25-3203-43AE-93F0-01B63B411E31}">
+  <dimension ref="A5:C21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>291.54500000000002</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>503.45499999999998</v>
+        <v>7.8360000000000003</v>
       </c>
       <c r="C5">
-        <f>B5-A5</f>
-        <v>211.90999999999997</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>291.54500000000002</v>
-      </c>
-      <c r="J5">
-        <v>528.43399999999997</v>
-      </c>
-      <c r="K5">
-        <f>J5-I5</f>
-        <v>236.88899999999995</v>
-      </c>
-      <c r="L5">
-        <v>508.08199999999999</v>
-      </c>
-      <c r="M5">
-        <f>L5-I5</f>
-        <v>216.53699999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.3339999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>349.85399999999998</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>546.77800000000002</v>
+        <v>14.635</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C44" si="0">B6-A6</f>
-        <v>196.92400000000004</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>583.09</v>
-      </c>
-      <c r="J6">
-        <v>830.47500000000002</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K16" si="1">J6-I6</f>
-        <v>247.38499999999999</v>
-      </c>
-      <c r="L6">
-        <v>833.34400000000005</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M16" si="2">L6-I6</f>
-        <v>250.25400000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11.943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>408.16300000000001</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>597.07100000000003</v>
+        <v>19.760999999999999</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>188.90800000000002</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>874.63599999999997</v>
-      </c>
-      <c r="J7">
-        <v>1128.7070000000001</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>254.07100000000014</v>
-      </c>
-      <c r="L7">
-        <v>1147.9280000000001</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>273.29200000000014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>11.287000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>466.47199999999998</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>648.91899999999998</v>
+        <v>24.309000000000001</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>182.447</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>1166.181</v>
-      </c>
-      <c r="J8">
-        <v>1463.9690000000001</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>297.78800000000001</v>
-      </c>
-      <c r="L8">
-        <v>1483.3019999999999</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>317.12099999999987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18.616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>524.78099999999995</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>706.68600000000004</v>
+        <v>30.556000000000001</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>181.90500000000009</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <v>25</v>
-      </c>
-      <c r="I9">
-        <v>1457.7260000000001</v>
-      </c>
-      <c r="J9">
-        <v>1754.7170000000001</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>296.99099999999999</v>
-      </c>
-      <c r="L9">
-        <v>1779.241</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>321.51499999999987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12.714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>583.09</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>733.34500000000003</v>
+        <v>36.107999999999997</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>150.255</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>778.19200000000001</v>
-      </c>
-      <c r="F10">
-        <f>E10-A10</f>
-        <v>195.10199999999998</v>
-      </c>
-      <c r="H10">
-        <v>30</v>
-      </c>
-      <c r="I10">
-        <v>1749.271</v>
-      </c>
-      <c r="J10">
-        <v>2091.2919999999999</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>342.02099999999996</v>
-      </c>
-      <c r="L10">
-        <v>2055.13</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>305.85900000000015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.8529999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>641.399</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>834.77800000000002</v>
+        <v>40.087000000000003</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>193.37900000000002</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>857.91</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ref="F11:F50" si="3">E11-A11</f>
-        <v>216.51099999999997</v>
-      </c>
-      <c r="H11">
-        <v>35</v>
-      </c>
-      <c r="I11">
-        <v>2040.816</v>
-      </c>
-      <c r="J11">
-        <v>2378.5050000000001</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>337.68900000000008</v>
-      </c>
-      <c r="L11">
-        <v>2356.6669999999999</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>315.85099999999989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12.569000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>699.70799999999997</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>916.14099999999996</v>
+        <v>47.131999999999998</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>216.43299999999999</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>930.92</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>231.21199999999999</v>
-      </c>
-      <c r="H12">
-        <v>40</v>
-      </c>
-      <c r="I12">
-        <v>2332.3620000000001</v>
-      </c>
-      <c r="J12">
-        <v>2697.9479999999999</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>365.58599999999979</v>
-      </c>
-      <c r="L12">
-        <v>2665.9279999999999</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>333.5659999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>10.412000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>758.01700000000005</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>997.43399999999997</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>239.41699999999992</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>998.04</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>240.02299999999991</v>
-      </c>
-      <c r="H13">
-        <v>45</v>
-      </c>
-      <c r="I13">
-        <v>2623.9070000000002</v>
-      </c>
-      <c r="J13">
-        <v>2993.0309999999999</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>369.1239999999998</v>
-      </c>
-      <c r="L13">
-        <v>2974.011</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>350.10399999999981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>12.096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>816.327</v>
+        <v>50</v>
       </c>
       <c r="B14">
-        <v>1067.5160000000001</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>251.18900000000008</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>1060.576</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>244.24900000000002</v>
-      </c>
-      <c r="H14">
-        <v>50</v>
-      </c>
-      <c r="I14">
-        <v>2915.4520000000002</v>
-      </c>
-      <c r="J14">
-        <v>3335.5059999999999</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>420.05399999999963</v>
-      </c>
-      <c r="L14">
-        <v>3235.2310000000002</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>319.779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>55.722999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>874.63599999999997</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>1132.9179999999999</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>258.28199999999993</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>1119.93</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>245.2940000000001</v>
-      </c>
-      <c r="H15">
-        <v>55</v>
-      </c>
-      <c r="I15">
-        <v>3206.9969999999998</v>
-      </c>
-      <c r="J15">
-        <v>3667.7449999999999</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>460.74800000000005</v>
-      </c>
-      <c r="L15">
-        <v>3589.5340000000001</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>382.53700000000026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>10.571999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>932.94500000000005</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>1193.384</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>260.43899999999996</v>
-      </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>1155.1110000000001</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>222.16600000000005</v>
-      </c>
-      <c r="H16">
-        <v>60</v>
-      </c>
-      <c r="I16">
-        <v>3498.5419999999999</v>
-      </c>
-      <c r="J16">
-        <v>3896.4459999999999</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>397.904</v>
-      </c>
-      <c r="L16">
-        <v>3891.3440000000001</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>392.80200000000013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>64.903000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>991.25400000000002</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>1247.213</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>255.95899999999995</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>1196.798</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>205.54399999999998</v>
-      </c>
-      <c r="H17">
-        <v>65</v>
-      </c>
-      <c r="I17">
-        <v>3790.087</v>
-      </c>
-      <c r="J17">
-        <v>4517.4629999999997</v>
-      </c>
-      <c r="K17">
-        <f>J17-I18</f>
-        <v>436.29999999999973</v>
-      </c>
-      <c r="L17">
-        <v>4148.09</v>
-      </c>
-      <c r="M17">
-        <f>L17-I17</f>
-        <v>358.00300000000016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>70.066999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1049.5630000000001</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>1292.6569999999999</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>243.09399999999982</v>
-      </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>1268.2919999999999</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>218.72899999999981</v>
-      </c>
-      <c r="H18">
-        <v>70</v>
-      </c>
-      <c r="I18">
-        <v>4081.163</v>
-      </c>
-      <c r="K18">
-        <f>AVERAGE(K5:K17)</f>
-        <v>343.27307692307687</v>
-      </c>
-      <c r="L18">
-        <v>4451.6440000000002</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ref="M18:M23" si="4">L18-I18</f>
-        <v>370.48100000000022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1107.8720000000001</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>1342.162</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>234.28999999999996</v>
-      </c>
-      <c r="D19">
-        <v>19</v>
-      </c>
-      <c r="E19">
-        <v>1323.758</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>215.88599999999997</v>
-      </c>
-      <c r="H19">
-        <v>75</v>
-      </c>
-      <c r="I19">
-        <v>4373.1790000000001</v>
-      </c>
-      <c r="L19">
-        <v>4787.2309999999998</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="4"/>
-        <v>414.05199999999968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.8559999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1166.181</v>
+        <v>80</v>
       </c>
       <c r="B20">
-        <v>1406.433</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>240.25199999999995</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1418.777</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>252.596</v>
-      </c>
-      <c r="H20">
-        <v>80</v>
-      </c>
-      <c r="I20">
-        <v>4664.723</v>
-      </c>
-      <c r="L20">
-        <v>5038.9350000000004</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="4"/>
-        <v>374.21200000000044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1224.49</v>
-      </c>
-      <c r="B21">
-        <v>1468.3530000000001</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>243.86300000000006</v>
-      </c>
-      <c r="D21">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1474.5650000000001</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>250.07500000000005</v>
-      </c>
-      <c r="H21">
-        <v>85</v>
-      </c>
-      <c r="I21">
-        <v>4956.268</v>
-      </c>
-      <c r="L21">
-        <v>5298.85</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="4"/>
-        <v>342.58200000000033</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1282.799</v>
-      </c>
-      <c r="B22">
-        <v>1558.33</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>275.53099999999995</v>
-      </c>
-      <c r="D22">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>1568.586</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>285.78700000000003</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1341.1079999999999</v>
-      </c>
-      <c r="B23">
-        <v>1639.424</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>298.31600000000003</v>
-      </c>
-      <c r="D23">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>1639.94</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>298.83200000000011</v>
-      </c>
-      <c r="H23">
-        <v>95</v>
-      </c>
-      <c r="I23">
-        <v>5539.3590000000004</v>
-      </c>
-      <c r="L23">
-        <v>5902.0910000000003</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="4"/>
-        <v>362.73199999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1399.4169999999999</v>
-      </c>
-      <c r="B24">
-        <v>1707.576</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>308.15900000000011</v>
-      </c>
-      <c r="D24">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>1704.5150000000001</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>305.09800000000018</v>
-      </c>
-      <c r="L24">
-        <f>AVERAGE(L5:L23)</f>
-        <v>3119.254611111111</v>
-      </c>
-      <c r="M24">
-        <f>AVERAGE(M5:M23)</f>
-        <v>315.85678947368427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1457.7260000000001</v>
-      </c>
-      <c r="B25">
-        <v>1781.7059999999999</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>323.97999999999979</v>
-      </c>
-      <c r="D25">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>1773.2639999999999</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
-        <v>315.53799999999978</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1516.0350000000001</v>
-      </c>
-      <c r="B26">
-        <v>1833.627</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>317.59199999999987</v>
-      </c>
-      <c r="D26">
-        <v>26</v>
-      </c>
-      <c r="E26">
-        <v>1817.5250000000001</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>301.49</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1574.3440000000001</v>
-      </c>
-      <c r="B27">
-        <v>1884.768</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>310.42399999999998</v>
-      </c>
-      <c r="D27">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>1874.587</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>300.24299999999994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1632.653</v>
-      </c>
-      <c r="B28">
-        <v>1941.19</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>308.53700000000003</v>
-      </c>
-      <c r="D28">
-        <v>28</v>
-      </c>
-      <c r="E28">
-        <v>1911.2529999999999</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>278.59999999999991</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28">
-        <v>296.524</v>
-      </c>
-      <c r="J28">
-        <v>291.54500000000002</v>
-      </c>
-      <c r="K28">
-        <f>I28-J28</f>
-        <v>4.978999999999985</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1690.962</v>
-      </c>
-      <c r="B29">
-        <v>1951.6659999999999</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>260.70399999999995</v>
-      </c>
-      <c r="D29">
-        <v>29</v>
-      </c>
-      <c r="E29">
-        <v>1954.374</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="3"/>
-        <v>263.41200000000003</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>332.49599999999998</v>
-      </c>
-      <c r="J29">
-        <v>349.85399999999998</v>
-      </c>
-      <c r="K29">
-        <f t="shared" ref="K29:K92" si="5">I29-J29</f>
-        <v>-17.358000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1749.271</v>
-      </c>
-      <c r="B30">
-        <v>2033.566</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>284.29500000000007</v>
-      </c>
-      <c r="D30">
-        <v>30</v>
-      </c>
-      <c r="E30">
-        <v>2033.759</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="3"/>
-        <v>284.48800000000006</v>
-      </c>
-      <c r="H30">
-        <v>7</v>
-      </c>
-      <c r="I30">
-        <v>339.55599999999998</v>
-      </c>
-      <c r="J30">
-        <v>408.16300000000001</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="5"/>
-        <v>-68.607000000000028</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1807.58</v>
-      </c>
-      <c r="B31">
-        <v>2091.2420000000002</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>283.66200000000026</v>
-      </c>
-      <c r="D31">
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>2091.7370000000001</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>284.15700000000015</v>
-      </c>
-      <c r="H31">
-        <v>8</v>
-      </c>
-      <c r="I31">
-        <v>457.44499999999999</v>
-      </c>
-      <c r="J31">
-        <v>466.47199999999998</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="5"/>
-        <v>-9.0269999999999868</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1865.8889999999999</v>
-      </c>
-      <c r="B32">
-        <v>2159.808</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>293.9190000000001</v>
-      </c>
-      <c r="D32">
-        <v>32</v>
-      </c>
-      <c r="E32">
-        <v>2186.4340000000002</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>320.5450000000003</v>
-      </c>
-      <c r="H32">
-        <v>9</v>
-      </c>
-      <c r="I32">
-        <v>522.19100000000003</v>
-      </c>
-      <c r="J32">
-        <v>524.78099999999995</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="5"/>
-        <v>-2.5899999999999181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1924.1980000000001</v>
-      </c>
-      <c r="B33">
-        <v>2219.221</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>295.02299999999991</v>
-      </c>
-      <c r="D33">
-        <v>33</v>
-      </c>
-      <c r="E33">
-        <v>2267.799</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="3"/>
-        <v>343.60099999999989</v>
-      </c>
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>583.41300000000001</v>
-      </c>
-      <c r="J33">
-        <v>583.09</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="5"/>
-        <v>0.32299999999997908</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1982.5070000000001</v>
-      </c>
-      <c r="B34">
-        <v>2273.4839999999999</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>290.97699999999986</v>
-      </c>
-      <c r="D34">
-        <v>34</v>
-      </c>
-      <c r="E34">
-        <v>2346.9789999999998</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="3"/>
-        <v>364.47199999999975</v>
-      </c>
-      <c r="H34">
-        <v>11</v>
-      </c>
-      <c r="I34">
-        <v>657.06100000000004</v>
-      </c>
-      <c r="J34">
-        <v>641.399</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="5"/>
-        <v>15.662000000000035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2040.816</v>
-      </c>
-      <c r="B35">
-        <v>2412.7370000000001</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>371.92100000000005</v>
-      </c>
-      <c r="D35">
-        <v>35</v>
-      </c>
-      <c r="E35">
-        <v>2425.759</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="3"/>
-        <v>384.94299999999998</v>
-      </c>
-      <c r="H35">
-        <v>12</v>
-      </c>
-      <c r="I35">
-        <v>729.50599999999997</v>
-      </c>
-      <c r="J35">
-        <v>699.70799999999997</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="5"/>
-        <v>29.798000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2099.125</v>
-      </c>
-      <c r="B36">
-        <v>2447.7820000000002</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>348.65700000000015</v>
-      </c>
-      <c r="D36">
-        <v>36</v>
-      </c>
-      <c r="E36">
-        <v>2448.9490000000001</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="3"/>
-        <v>349.82400000000007</v>
-      </c>
-      <c r="H36">
-        <v>13</v>
-      </c>
-      <c r="I36">
-        <v>671.24099999999999</v>
-      </c>
-      <c r="J36">
-        <v>758.01700000000005</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="5"/>
-        <v>-86.776000000000067</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2157.4340000000002</v>
-      </c>
-      <c r="B37">
-        <v>2539.86</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>382.42599999999993</v>
-      </c>
-      <c r="D37">
-        <v>37</v>
-      </c>
-      <c r="E37">
-        <v>2480.98</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>323.54599999999982</v>
-      </c>
-      <c r="H37">
-        <v>14</v>
-      </c>
-      <c r="I37">
-        <v>734.9</v>
-      </c>
-      <c r="J37">
-        <v>816.327</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="5"/>
-        <v>-81.427000000000021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2215.7429999999999</v>
-      </c>
-      <c r="B38">
-        <v>2571.6660000000002</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>355.92300000000023</v>
-      </c>
-      <c r="D38">
-        <v>38</v>
-      </c>
-      <c r="E38">
-        <v>2521.2939999999999</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>305.55099999999993</v>
-      </c>
-      <c r="H38">
-        <v>15</v>
-      </c>
-      <c r="I38">
-        <v>793.44299999999998</v>
-      </c>
-      <c r="J38">
-        <v>874.63599999999997</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="5"/>
-        <v>-81.192999999999984</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2274.0520000000001</v>
-      </c>
-      <c r="B39">
-        <v>2611.384</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>337.33199999999988</v>
-      </c>
-      <c r="D39">
-        <v>39</v>
-      </c>
-      <c r="E39">
-        <v>2590.4650000000001</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>316.41300000000001</v>
-      </c>
-      <c r="H39">
-        <v>16</v>
-      </c>
-      <c r="I39">
-        <v>853.83799999999997</v>
-      </c>
-      <c r="J39">
-        <v>932.94500000000005</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="5"/>
-        <v>-79.107000000000085</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2332.3620000000001</v>
-      </c>
-      <c r="B40">
-        <v>2646.212</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>313.84999999999991</v>
-      </c>
-      <c r="D40">
-        <v>40</v>
-      </c>
-      <c r="E40">
-        <v>2640.1909999999998</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="3"/>
-        <v>307.82899999999972</v>
-      </c>
-      <c r="H40">
-        <v>17</v>
-      </c>
-      <c r="I40">
-        <v>924.476</v>
-      </c>
-      <c r="J40">
-        <v>991.25400000000002</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="5"/>
-        <v>-66.77800000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2390.6709999999998</v>
-      </c>
-      <c r="B41">
-        <v>2707.223</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>316.55200000000013</v>
-      </c>
-      <c r="D41">
-        <v>41</v>
-      </c>
-      <c r="E41">
-        <v>2710.616</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
-        <v>319.94500000000016</v>
-      </c>
-      <c r="H41">
-        <v>18</v>
-      </c>
-      <c r="I41">
-        <v>988.66700000000003</v>
-      </c>
-      <c r="J41">
-        <v>1049.5630000000001</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="5"/>
-        <v>-60.896000000000072</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2448.98</v>
-      </c>
-      <c r="B42">
-        <v>2785.7249999999999</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>336.74499999999989</v>
-      </c>
-      <c r="D42">
-        <v>42</v>
-      </c>
-      <c r="E42">
-        <v>2763.4740000000002</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
-        <v>314.49400000000014</v>
-      </c>
-      <c r="H42">
-        <v>19</v>
-      </c>
-      <c r="I42">
-        <v>1047.231</v>
-      </c>
-      <c r="J42">
-        <v>1107.8720000000001</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="5"/>
-        <v>-60.641000000000076</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2507.2890000000002</v>
-      </c>
-      <c r="B43">
-        <v>2855.88</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>348.59099999999989</v>
-      </c>
-      <c r="D43">
-        <v>43</v>
-      </c>
-      <c r="E43">
-        <v>2845.0210000000002</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
-        <v>337.73199999999997</v>
-      </c>
-      <c r="H43">
-        <v>20</v>
-      </c>
-      <c r="I43">
-        <v>1107.211</v>
-      </c>
-      <c r="J43">
-        <v>1166.181</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="5"/>
-        <v>-58.970000000000027</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2565.598</v>
-      </c>
-      <c r="B44">
-        <v>2956.364</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>390.76600000000008</v>
-      </c>
-      <c r="D44">
-        <v>44</v>
-      </c>
-      <c r="E44">
-        <v>2930.0509999999999</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
-        <v>364.45299999999997</v>
-      </c>
-      <c r="H44">
-        <v>21</v>
-      </c>
-      <c r="I44">
-        <v>1176.96</v>
-      </c>
-      <c r="J44">
-        <v>1224.49</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="5"/>
-        <v>-47.529999999999973</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2623.9070000000002</v>
-      </c>
-      <c r="C45">
-        <f>AVERAGE(C5:C44)</f>
-        <v>277.57070000000004</v>
-      </c>
-      <c r="D45">
-        <v>45</v>
-      </c>
-      <c r="E45">
-        <v>3050.4340000000002</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="3"/>
-        <v>426.52700000000004</v>
-      </c>
-      <c r="H45">
-        <v>22</v>
-      </c>
-      <c r="I45">
-        <v>1224.5540000000001</v>
-      </c>
-      <c r="J45">
-        <v>1282.799</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="5"/>
-        <v>-58.244999999999891</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2915.4520000000002</v>
-      </c>
-      <c r="D46">
-        <v>50</v>
-      </c>
-      <c r="E46">
-        <v>3280.0010000000002</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="3"/>
-        <v>364.54899999999998</v>
-      </c>
-      <c r="H46">
-        <v>23</v>
-      </c>
-      <c r="I46">
-        <v>1267.5139999999999</v>
-      </c>
-      <c r="J46">
-        <v>1341.1079999999999</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="5"/>
-        <v>-73.594000000000051</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>3206.9969999999998</v>
-      </c>
-      <c r="D47">
-        <v>55</v>
-      </c>
-      <c r="E47">
-        <v>3565.1909999999998</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="3"/>
-        <v>358.19399999999996</v>
-      </c>
-      <c r="H47">
-        <v>24</v>
-      </c>
-      <c r="I47">
-        <v>1353.7159999999999</v>
-      </c>
-      <c r="J47">
-        <v>1399.4169999999999</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="5"/>
-        <v>-45.701000000000022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>3498.5419999999999</v>
-      </c>
-      <c r="D48">
-        <v>60</v>
-      </c>
-      <c r="E48">
-        <v>3884.2820000000002</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
-        <v>385.74000000000024</v>
-      </c>
-      <c r="H48">
-        <v>25</v>
-      </c>
-      <c r="I48">
-        <v>1406.0409999999999</v>
-      </c>
-      <c r="J48">
-        <v>1457.7260000000001</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="5"/>
-        <v>-51.685000000000173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>3790.087</v>
-      </c>
-      <c r="D49">
-        <v>65</v>
-      </c>
-      <c r="E49">
-        <v>4165.6670000000004</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="3"/>
-        <v>375.58000000000038</v>
-      </c>
-      <c r="H49">
-        <v>26</v>
-      </c>
-      <c r="I49">
-        <v>1488.6769999999999</v>
-      </c>
-      <c r="J49">
-        <v>1516.0350000000001</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="5"/>
-        <v>-27.358000000000175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>4081.6329999999998</v>
-      </c>
-      <c r="D50">
-        <v>70</v>
-      </c>
-      <c r="E50">
-        <v>4498.4449999999997</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="3"/>
-        <v>416.8119999999999</v>
-      </c>
-      <c r="H50">
-        <v>27</v>
-      </c>
-      <c r="I50">
-        <v>1539.425</v>
-      </c>
-      <c r="J50">
-        <v>1574.3440000000001</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="5"/>
-        <v>-34.919000000000096</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F51">
-        <f>AVERAGE(F10:F46)</f>
-        <v>291.87718918918927</v>
-      </c>
-      <c r="H51">
-        <v>28</v>
-      </c>
-      <c r="I51">
-        <v>1608.999</v>
-      </c>
-      <c r="J51">
-        <v>1632.653</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="5"/>
-        <v>-23.653999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H52">
-        <v>29</v>
-      </c>
-      <c r="I52">
-        <v>1667.7570000000001</v>
-      </c>
-      <c r="J52">
-        <v>1690.962</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="5"/>
-        <v>-23.204999999999927</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H53">
-        <v>30</v>
-      </c>
-      <c r="I53">
-        <v>1734.587</v>
-      </c>
-      <c r="J53">
-        <v>1749.271</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="5"/>
-        <v>-14.683999999999969</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H54">
-        <v>31</v>
-      </c>
-      <c r="I54">
-        <v>1797.173</v>
-      </c>
-      <c r="J54">
-        <v>1807.58</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="5"/>
-        <v>-10.406999999999925</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H55">
-        <v>32</v>
-      </c>
-      <c r="I55">
-        <v>1837.8389999999999</v>
-      </c>
-      <c r="J55">
-        <v>1865.8889999999999</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="5"/>
-        <v>-28.049999999999955</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>33</v>
-      </c>
-      <c r="I56">
-        <v>1893.3219999999999</v>
-      </c>
-      <c r="J56">
-        <v>1924.1980000000001</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="5"/>
-        <v>-30.876000000000204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H57">
-        <v>34</v>
-      </c>
-      <c r="I57">
-        <v>1944.17</v>
-      </c>
-      <c r="J57">
-        <v>1982.5070000000001</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="5"/>
-        <v>-38.336999999999989</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H58">
-        <v>35</v>
-      </c>
-      <c r="I58">
-        <v>2022.5889999999999</v>
-      </c>
-      <c r="J58">
-        <v>2040.816</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="5"/>
-        <v>-18.227000000000089</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H59">
-        <v>36</v>
-      </c>
-      <c r="I59">
-        <v>2106.6289999999999</v>
-      </c>
-      <c r="J59">
-        <v>2099.125</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="5"/>
-        <v>7.5039999999999054</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H60">
-        <v>37</v>
-      </c>
-      <c r="I60">
-        <v>2172.5059999999999</v>
-      </c>
-      <c r="J60">
-        <v>2157.4340000000002</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="5"/>
-        <v>15.071999999999662</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H61">
-        <v>38</v>
-      </c>
-      <c r="I61">
-        <v>2214.4560000000001</v>
-      </c>
-      <c r="J61">
-        <v>2215.7429999999999</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="5"/>
-        <v>-1.2869999999998072</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H62">
-        <v>39</v>
-      </c>
-      <c r="I62">
-        <v>2287.9580000000001</v>
-      </c>
-      <c r="J62">
-        <v>2274.0520000000001</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="5"/>
-        <v>13.905999999999949</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H63">
-        <v>40</v>
-      </c>
-      <c r="I63">
-        <v>2338.4760000000001</v>
-      </c>
-      <c r="J63">
-        <v>2332.3620000000001</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="5"/>
-        <v>6.1140000000000327</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H64">
-        <v>41</v>
-      </c>
-      <c r="I64">
-        <v>2373.0430000000001</v>
-      </c>
-      <c r="J64">
-        <v>2390.6709999999998</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="5"/>
-        <v>-17.627999999999702</v>
-      </c>
-    </row>
-    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H65">
-        <v>42</v>
-      </c>
-      <c r="I65">
-        <v>2444.9299999999998</v>
-      </c>
-      <c r="J65">
-        <v>2448.98</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="5"/>
-        <v>-4.0500000000001819</v>
-      </c>
-    </row>
-    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H66">
-        <v>43</v>
-      </c>
-      <c r="I66">
-        <v>2479.7080000000001</v>
-      </c>
-      <c r="J66">
-        <v>2507.2890000000002</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="5"/>
-        <v>-27.581000000000131</v>
-      </c>
-    </row>
-    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H67">
-        <v>44</v>
-      </c>
-      <c r="I67">
-        <v>2555.8780000000002</v>
-      </c>
-      <c r="J67">
-        <v>2565.598</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="5"/>
-        <v>-9.7199999999997999</v>
-      </c>
-    </row>
-    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H68">
-        <v>45</v>
-      </c>
-      <c r="I68">
-        <v>2616.6669999999999</v>
-      </c>
-      <c r="J68">
-        <v>2623.9070000000002</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="5"/>
-        <v>-7.2400000000002365</v>
-      </c>
-    </row>
-    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H69">
-        <v>46</v>
-      </c>
-      <c r="I69">
-        <v>2694.1419999999998</v>
-      </c>
-      <c r="J69">
-        <v>2692.2159999999999</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="5"/>
-        <v>1.9259999999999309</v>
-      </c>
-    </row>
-    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H70">
-        <v>47</v>
-      </c>
-      <c r="I70">
-        <v>2729.6759999999999</v>
-      </c>
-      <c r="J70">
-        <v>2740.5250000000001</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="5"/>
-        <v>-10.84900000000016</v>
-      </c>
-    </row>
-    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H71">
-        <v>48</v>
-      </c>
-      <c r="I71">
-        <v>2817.6350000000002</v>
-      </c>
-      <c r="J71">
-        <v>2798.8339999999998</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="5"/>
-        <v>18.801000000000386</v>
-      </c>
-    </row>
-    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H72">
-        <v>49</v>
-      </c>
-      <c r="I72">
-        <v>2856.7660000000001</v>
-      </c>
-      <c r="J72">
-        <v>2857.143</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="5"/>
-        <v>-0.37699999999995271</v>
-      </c>
-    </row>
-    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H73">
-        <v>50</v>
-      </c>
-      <c r="I73">
-        <v>2872.2530000000002</v>
-      </c>
-      <c r="J73">
-        <v>2915.4520000000002</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="5"/>
-        <v>-43.199000000000069</v>
-      </c>
-    </row>
-    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H74">
-        <v>51</v>
-      </c>
-      <c r="I74">
-        <v>2926.6570000000002</v>
-      </c>
-      <c r="J74">
-        <v>2973.761</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="5"/>
-        <v>-47.103999999999814</v>
-      </c>
-    </row>
-    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H75">
-        <v>52</v>
-      </c>
-      <c r="I75">
-        <v>2988.2739999999999</v>
-      </c>
-      <c r="J75">
-        <v>3032.07</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="5"/>
-        <v>-43.796000000000276</v>
-      </c>
-    </row>
-    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H76">
-        <v>53</v>
-      </c>
-      <c r="I76">
-        <v>3053.7779999999998</v>
-      </c>
-      <c r="J76">
-        <v>3090.3789999999999</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="5"/>
-        <v>-36.601000000000113</v>
-      </c>
-    </row>
-    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H77">
-        <v>54</v>
-      </c>
-      <c r="I77">
-        <v>3133.05</v>
-      </c>
-      <c r="J77">
-        <v>3148.6880000000001</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="5"/>
-        <v>-15.63799999999992</v>
-      </c>
-    </row>
-    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H78">
-        <v>55</v>
-      </c>
-      <c r="I78">
-        <v>3176.029</v>
-      </c>
-      <c r="J78">
-        <v>3206.9969999999998</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="5"/>
-        <v>-30.967999999999847</v>
-      </c>
-    </row>
-    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H79">
-        <v>56</v>
-      </c>
-      <c r="I79">
-        <v>3261.3629999999998</v>
-      </c>
-      <c r="J79">
-        <v>3265.306</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="5"/>
-        <v>-3.943000000000211</v>
-      </c>
-    </row>
-    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H80">
-        <v>57</v>
-      </c>
-      <c r="I80">
-        <v>3328.0920000000001</v>
-      </c>
-      <c r="J80">
-        <v>3323.6149999999998</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="5"/>
-        <v>4.4770000000003165</v>
-      </c>
-    </row>
-    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H81">
-        <v>58</v>
-      </c>
-      <c r="I81">
-        <v>3379.0149999999999</v>
-      </c>
-      <c r="J81">
-        <v>3381.924</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="5"/>
-        <v>-2.9090000000001055</v>
-      </c>
-    </row>
-    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H82">
-        <v>59</v>
-      </c>
-      <c r="I82">
-        <v>3418.8969999999999</v>
-      </c>
-      <c r="J82">
-        <v>3440.2330000000002</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="5"/>
-        <v>-21.33600000000024</v>
-      </c>
-    </row>
-    <row r="83" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H83">
-        <v>60</v>
-      </c>
-      <c r="I83">
-        <v>3515.067</v>
-      </c>
-      <c r="J83">
-        <v>3498.5419999999999</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="5"/>
-        <v>16.525000000000091</v>
-      </c>
-    </row>
-    <row r="84" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H84">
-        <v>61</v>
-      </c>
-      <c r="I84">
-        <v>3521.5239999999999</v>
-      </c>
-      <c r="J84">
-        <v>3556.8510000000001</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="5"/>
-        <v>-35.327000000000226</v>
-      </c>
-    </row>
-    <row r="85" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H85">
-        <v>62</v>
-      </c>
-      <c r="I85">
-        <v>3590.627</v>
-      </c>
-      <c r="J85">
-        <v>3615.16</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="5"/>
-        <v>-24.532999999999902</v>
-      </c>
-    </row>
-    <row r="86" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H86">
-        <v>63</v>
-      </c>
-      <c r="I86">
-        <v>3653.93</v>
-      </c>
-      <c r="J86">
-        <v>3673.4690000000001</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="5"/>
-        <v>-19.539000000000215</v>
-      </c>
-    </row>
-    <row r="87" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H87">
-        <v>64</v>
-      </c>
-      <c r="I87">
-        <v>3710.3319999999999</v>
-      </c>
-      <c r="J87">
-        <v>3731.7779999999998</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="5"/>
-        <v>-21.445999999999913</v>
-      </c>
-    </row>
-    <row r="88" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H88">
-        <v>65</v>
-      </c>
-      <c r="I88">
-        <v>3816.2510000000002</v>
-      </c>
-      <c r="J88">
-        <v>3790.087</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="5"/>
-        <v>26.164000000000215</v>
-      </c>
-    </row>
-    <row r="89" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H89">
-        <v>66</v>
-      </c>
-      <c r="I89">
-        <v>3848.6979999999999</v>
-      </c>
-      <c r="J89">
-        <v>3848.3969999999999</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="5"/>
-        <v>0.30099999999993088</v>
-      </c>
-    </row>
-    <row r="90" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H90">
-        <v>67</v>
-      </c>
-      <c r="I90">
-        <v>3909.5279999999998</v>
-      </c>
-      <c r="J90">
-        <v>3906.7060000000001</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="5"/>
-        <v>2.8219999999996617</v>
-      </c>
-    </row>
-    <row r="91" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H91">
-        <v>68</v>
-      </c>
-      <c r="I91">
-        <v>3942.605</v>
-      </c>
-      <c r="J91">
-        <v>3965.0149999999999</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="5"/>
-        <v>-22.409999999999854</v>
-      </c>
-    </row>
-    <row r="92" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H92">
-        <v>69</v>
-      </c>
-      <c r="I92">
-        <v>3961.5720000000001</v>
-      </c>
-      <c r="J92">
-        <v>4023.3240000000001</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="5"/>
-        <v>-61.751999999999953</v>
-      </c>
-    </row>
-    <row r="93" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H93">
-        <v>70</v>
-      </c>
-      <c r="I93">
-        <v>4069.2829999999999</v>
-      </c>
-      <c r="J93">
-        <v>4081.6329999999998</v>
-      </c>
-      <c r="K93">
-        <f t="shared" ref="K93:K103" si="6">I93-J93</f>
-        <v>-12.349999999999909</v>
-      </c>
-    </row>
-    <row r="94" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H94">
-        <v>71</v>
-      </c>
-      <c r="I94">
-        <v>4147.7920000000004</v>
-      </c>
-      <c r="J94">
-        <v>4139.942</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="6"/>
-        <v>7.8500000000003638</v>
-      </c>
-    </row>
-    <row r="95" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H95">
-        <v>72</v>
-      </c>
-      <c r="I95">
-        <v>4219.3500000000004</v>
-      </c>
-      <c r="J95">
-        <v>4198.2510000000002</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="6"/>
-        <v>21.09900000000016</v>
-      </c>
-    </row>
-    <row r="96" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H96">
-        <v>73</v>
-      </c>
-      <c r="I96">
-        <v>4302.7489999999998</v>
-      </c>
-      <c r="J96">
-        <v>4256.5600000000004</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="6"/>
-        <v>46.188999999999396</v>
-      </c>
-    </row>
-    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H97">
-        <v>74</v>
-      </c>
-      <c r="I97">
-        <v>4327.2520000000004</v>
-      </c>
-      <c r="J97">
-        <v>4314.8689999999997</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="6"/>
-        <v>12.38300000000072</v>
-      </c>
-    </row>
-    <row r="98" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H98">
-        <v>75</v>
-      </c>
-      <c r="I98">
-        <v>4388.4650000000001</v>
-      </c>
-      <c r="J98">
-        <v>4373.1779999999999</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="6"/>
-        <v>15.287000000000262</v>
-      </c>
-    </row>
-    <row r="99" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H99">
-        <v>76</v>
-      </c>
-      <c r="I99">
-        <v>4453.95</v>
-      </c>
-      <c r="J99">
-        <v>4431.4870000000001</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="6"/>
-        <v>22.462999999999738</v>
-      </c>
-    </row>
-    <row r="100" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H100">
-        <v>77</v>
-      </c>
-      <c r="I100">
-        <v>4530.759</v>
-      </c>
-      <c r="J100">
-        <v>4489.7960000000003</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="6"/>
-        <v>40.962999999999738</v>
-      </c>
-    </row>
-    <row r="101" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H101">
-        <v>78</v>
-      </c>
-      <c r="I101">
-        <v>4518.6769999999997</v>
-      </c>
-      <c r="J101">
-        <v>4548.1049999999996</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="6"/>
-        <v>-29.427999999999884</v>
-      </c>
-    </row>
-    <row r="102" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H102">
-        <v>79</v>
-      </c>
-      <c r="I102">
-        <v>9718.2630000000008</v>
-      </c>
-      <c r="J102">
-        <v>4606.4139999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H103">
-        <v>80</v>
-      </c>
-      <c r="I103">
-        <v>4638.7939999999999</v>
-      </c>
-      <c r="J103">
-        <v>4664.723</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="6"/>
-        <v>-25.929000000000087</v>
+        <v>12.019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/50kHz measurments.xlsx
+++ b/50kHz measurments.xlsx
@@ -1,45 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiera\Documents\GitHub\PROJ324_SK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmall1\Documents\GitHub\PROJ324_SK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2C6FC8-A157-4B0B-B30A-03C4A198B72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2845CF-8169-4306-B237-7379EF127A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>1cm is 58.309</t>
   </si>
@@ -54,6 +44,21 @@
   </si>
   <si>
     <t>MEASURED DISTANCE(CM)</t>
+  </si>
+  <si>
+    <t>MEASURED DISTANCE (CM)</t>
+  </si>
+  <si>
+    <t>Second Corrections</t>
+  </si>
+  <si>
+    <t>9 Bad</t>
+  </si>
+  <si>
+    <t>66good</t>
+  </si>
+  <si>
+    <t>88% correct</t>
   </si>
 </sst>
 </file>
@@ -1429,6 +1434,1826 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Second Corrections</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36607954178141527"/>
+          <c:y val="2.3063065680705475E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEASURED DISTANCE (CM)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$5:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$5:$B$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>5.1905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7598000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8071999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9636999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9902999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.0266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.337300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.1951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.2182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.3482</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.244900000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.815300000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.707100000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.674099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.842600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.1053</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.736000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.848800000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.051100000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.136700000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.1435</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.104900000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.1709</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.675699999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.677299999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30.812200000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.470099999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.417200000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.561700000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.511499999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35.896999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37.284300000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38.2592</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39.078800000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.2746</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40.727600000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.828499999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.925199999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43.8489</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44.791800000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46.416899999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47.829799999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49.7196</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49.364800000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50.329900000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51.275399999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51.820700000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>52.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53.536799999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54.506700000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>55.592799999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56.952399999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58.304699999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59.164999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60.410400000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>60.209699999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>61.741100000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62.809199999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64.009900000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>63.725099999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>65.637699999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>66.540800000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68.075599999999994</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69.304900000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70.388000000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71.697400000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71.869900000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73.260900000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74.005799999999994</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>74.731700000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>75.3001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>76.591099999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78.857100000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>80.094899999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>79.575500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE15-43D4-84A3-B064EB6E8ED2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1866287199"/>
+        <c:axId val="1775413935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1866287199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="85"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>actual distance (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775413935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1775413935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="85"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Measured distance(cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866287199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>sECOND CORRECTIONS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$5:$A$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$E$5:$E$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="76"/>
+                <c:pt idx="0">
+                  <c:v>11.111999999999966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.004999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.3439999999999941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.299999999999955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.1839999999999691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.63499999999999091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4710000000000036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.586000000000013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.316999999999894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.823999999999955</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.22300000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.197000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-10.658999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17.128000000000156</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-19.063000000000102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.081000000000131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.05600000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-15.504999999999882</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.8949999999999818</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9070000000001528</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.890999999999849</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4889999999998054</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2210000000000036</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.8930000000000291</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-18.991999999999962</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-18.726999999999862</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-11.023999999999887</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-30.968999999999824</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-34.076000000000022</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-25.647000000000162</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-28.553000000000111</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.8939999999997781</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.505999999999858</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.036000000000058</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.5149999999998727</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15.942000000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-15.772999999999683</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-10.059999999999945</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.2300000000000182</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-8.9099999999998545</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-12.0300000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.229000000000269</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48.493999999999687</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99.997000000000298</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.380999999999858</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.354999999999563</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.036999999999807</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-10.344000000000051</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.0450000000000728</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-17.090999999999894</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-28.844000000000051</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-24.039999999999964</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.8659999999999854</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.51299999999992</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.3649999999997817</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.773000000000138</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-45.983999999999924</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-15.428999999999633</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-11.385999999999967</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.48600000000033106</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-74.449999999999818</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-21.003999999999905</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-26.677000000000135</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.7190000000000509</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.916999999999916</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22.53899999999976</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40.203999999999724</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-7.4639999999999418</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.867999999999483</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0830000000005384</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-15.672999999999774</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-40.899999999999636</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-24.256000000000313</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>49.846000000000458</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>64.269000000000233</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-24.978000000000065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CADF-4E35-BF1B-92755BCEA925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1957618783"/>
+        <c:axId val="1948281375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1957618783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="85"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>actual</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> distance(CM)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1948281375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1948281375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>MEASUREMENT</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> ERROR (US)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1957618783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7801,6 +9626,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8638,6 +10543,1046 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14005,6 +16950,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DBF63B-2807-4950-ADA9-AF27098AED41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C35803-E9C8-4AE3-8642-A95E310021B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15587,8 +18609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A581574-D065-4677-A136-CE1820FEC8BC}">
   <dimension ref="A5:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView topLeftCell="C62" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28:J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18386,4 +21408,1414 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8D9150-10E7-4342-83C2-EC0FE8E58F08}">
+  <dimension ref="A3:J80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.1905999999999999</v>
+      </c>
+      <c r="C5">
+        <v>291.54500000000002</v>
+      </c>
+      <c r="D5">
+        <v>302.65699999999998</v>
+      </c>
+      <c r="E5">
+        <f>D5-C5</f>
+        <v>11.111999999999966</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.7598000000000003</v>
+      </c>
+      <c r="C6">
+        <v>349.85399999999998</v>
+      </c>
+      <c r="D6">
+        <v>335.84899999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E69" si="0">D6-C6</f>
+        <v>-14.004999999999995</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.7549999999999999</v>
+      </c>
+      <c r="C7">
+        <v>408.16300000000001</v>
+      </c>
+      <c r="D7">
+        <v>398.81900000000002</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-9.3439999999999941</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.8071999999999999</v>
+      </c>
+      <c r="C8">
+        <v>466.47199999999998</v>
+      </c>
+      <c r="D8">
+        <v>455.17200000000003</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-11.299999999999955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.9636999999999993</v>
+      </c>
+      <c r="C9">
+        <v>524.78099999999995</v>
+      </c>
+      <c r="D9">
+        <v>522.59699999999998</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-2.1839999999999691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9.9902999999999995</v>
+      </c>
+      <c r="C10">
+        <v>583.09</v>
+      </c>
+      <c r="D10">
+        <v>582.45500000000004</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-0.63499999999999091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11.0266</v>
+      </c>
+      <c r="C11">
+        <v>641.399</v>
+      </c>
+      <c r="D11">
+        <v>642.87</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.4710000000000036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>12.337300000000001</v>
+      </c>
+      <c r="C12">
+        <v>699.70799999999997</v>
+      </c>
+      <c r="D12">
+        <v>719.29399999999998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>19.586000000000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>13.1951</v>
+      </c>
+      <c r="C13">
+        <v>758.01700000000005</v>
+      </c>
+      <c r="D13">
+        <v>769.33399999999995</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>11.316999999999894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14.2182</v>
+      </c>
+      <c r="C14">
+        <v>816.327</v>
+      </c>
+      <c r="D14">
+        <v>829.15099999999995</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>12.823999999999955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15.3482</v>
+      </c>
+      <c r="C15">
+        <v>874.63599999999997</v>
+      </c>
+      <c r="D15">
+        <v>894.85900000000004</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>20.22300000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>16.244900000000001</v>
+      </c>
+      <c r="C16">
+        <v>932.94500000000005</v>
+      </c>
+      <c r="D16">
+        <v>947.14200000000005</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>14.197000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16.815300000000001</v>
+      </c>
+      <c r="C17">
+        <v>991.25400000000002</v>
+      </c>
+      <c r="D17">
+        <v>980.59500000000003</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-10.658999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17.707100000000001</v>
+      </c>
+      <c r="C18">
+        <v>1049.5630000000001</v>
+      </c>
+      <c r="D18">
+        <v>1032.4349999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-17.128000000000156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18.674099999999999</v>
+      </c>
+      <c r="C19">
+        <v>1107.8720000000001</v>
+      </c>
+      <c r="D19">
+        <v>1088.809</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-19.063000000000102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19.842600000000001</v>
+      </c>
+      <c r="C20">
+        <v>1166.181</v>
+      </c>
+      <c r="D20">
+        <v>1157.0999999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-9.081000000000131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>21.1053</v>
+      </c>
+      <c r="C21">
+        <v>1224.49</v>
+      </c>
+      <c r="D21">
+        <v>1230.546</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>6.05600000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21.736000000000001</v>
+      </c>
+      <c r="C22">
+        <v>1282.799</v>
+      </c>
+      <c r="D22">
+        <v>1267.2940000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-15.504999999999882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22.848800000000001</v>
+      </c>
+      <c r="C23">
+        <v>1341.1079999999999</v>
+      </c>
+      <c r="D23">
+        <v>1332.213</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-8.8949999999999818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>24.051100000000002</v>
+      </c>
+      <c r="C24">
+        <v>1399.4169999999999</v>
+      </c>
+      <c r="D24">
+        <v>1402.3240000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>2.9070000000001528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>25.136700000000001</v>
+      </c>
+      <c r="C25">
+        <v>1457.7260000000001</v>
+      </c>
+      <c r="D25">
+        <v>1465.617</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>7.890999999999849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>26.1435</v>
+      </c>
+      <c r="C26">
+        <v>1516.0350000000001</v>
+      </c>
+      <c r="D26">
+        <v>1524.5239999999999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>8.4889999999998054</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>27.104900000000001</v>
+      </c>
+      <c r="C27">
+        <v>1574.3440000000001</v>
+      </c>
+      <c r="D27">
+        <v>1580.5650000000001</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>6.2210000000000036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>28.1709</v>
+      </c>
+      <c r="C28">
+        <v>1632.653</v>
+      </c>
+      <c r="D28">
+        <v>1642.546</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>9.8930000000000291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28.675699999999999</v>
+      </c>
+      <c r="C29">
+        <v>1690.962</v>
+      </c>
+      <c r="D29">
+        <v>1671.97</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-18.991999999999962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29.677299999999999</v>
+      </c>
+      <c r="C30">
+        <v>1749.271</v>
+      </c>
+      <c r="D30">
+        <v>1730.5440000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-18.726999999999862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30.812200000000001</v>
+      </c>
+      <c r="C31">
+        <v>1807.58</v>
+      </c>
+      <c r="D31">
+        <v>1796.556</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-11.023999999999887</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31.470099999999999</v>
+      </c>
+      <c r="C32">
+        <v>1865.8889999999999</v>
+      </c>
+      <c r="D32">
+        <v>1834.92</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>-30.968999999999824</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>32.417200000000001</v>
+      </c>
+      <c r="C33">
+        <v>1924.1980000000001</v>
+      </c>
+      <c r="D33">
+        <v>1890.1220000000001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>-34.076000000000022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33.561700000000002</v>
+      </c>
+      <c r="C34">
+        <v>1982.5070000000001</v>
+      </c>
+      <c r="D34">
+        <v>1956.86</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>-25.647000000000162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34.511499999999998</v>
+      </c>
+      <c r="C35">
+        <v>2040.816</v>
+      </c>
+      <c r="D35">
+        <v>2012.2629999999999</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>-28.553000000000111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35.896999999999998</v>
+      </c>
+      <c r="C36">
+        <v>2099.125</v>
+      </c>
+      <c r="D36">
+        <v>2093.2310000000002</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-5.8939999999997781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>37.284300000000002</v>
+      </c>
+      <c r="C37">
+        <v>2157.4340000000002</v>
+      </c>
+      <c r="D37">
+        <v>2173.94</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>16.505999999999858</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>38.2592</v>
+      </c>
+      <c r="C38">
+        <v>2215.7429999999999</v>
+      </c>
+      <c r="D38">
+        <v>2230.779</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>15.036000000000058</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>39.078800000000001</v>
+      </c>
+      <c r="C39">
+        <v>2274.0520000000001</v>
+      </c>
+      <c r="D39">
+        <v>2278.567</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>4.5149999999998727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>40.2746</v>
+      </c>
+      <c r="C40">
+        <v>2332.3620000000001</v>
+      </c>
+      <c r="D40">
+        <v>2348.3040000000001</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>15.942000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40.727600000000002</v>
+      </c>
+      <c r="C41">
+        <v>2390.6709999999998</v>
+      </c>
+      <c r="D41">
+        <v>2374.8980000000001</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>-15.772999999999683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41.828499999999998</v>
+      </c>
+      <c r="C42">
+        <v>2448.98</v>
+      </c>
+      <c r="D42">
+        <v>2438.92</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-10.059999999999945</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42.925199999999997</v>
+      </c>
+      <c r="C43">
+        <v>2507.2890000000002</v>
+      </c>
+      <c r="D43">
+        <v>2503.0590000000002</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-4.2300000000000182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43.8489</v>
+      </c>
+      <c r="C44">
+        <v>2565.598</v>
+      </c>
+      <c r="D44">
+        <v>2556.6880000000001</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-8.9099999999998545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44.791800000000002</v>
+      </c>
+      <c r="C45">
+        <v>2623.9070000000002</v>
+      </c>
+      <c r="D45">
+        <v>2611.877</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-12.0300000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>46.416899999999998</v>
+      </c>
+      <c r="C46">
+        <v>2692.2159999999999</v>
+      </c>
+      <c r="D46">
+        <v>2706.4450000000002</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>14.229000000000269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>47.829799999999999</v>
+      </c>
+      <c r="C47">
+        <v>2740.5250000000001</v>
+      </c>
+      <c r="D47">
+        <v>2789.0189999999998</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>48.493999999999687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <v>49.7196</v>
+      </c>
+      <c r="C48">
+        <v>2798.8339999999998</v>
+      </c>
+      <c r="D48">
+        <v>2898.8310000000001</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>99.997000000000298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
+        <v>49.364800000000002</v>
+      </c>
+      <c r="C49">
+        <v>2857.143</v>
+      </c>
+      <c r="D49">
+        <v>2878.5239999999999</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>21.380999999999858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>50.329900000000002</v>
+      </c>
+      <c r="C50">
+        <v>2915.4520000000002</v>
+      </c>
+      <c r="D50">
+        <v>2934.8069999999998</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>19.354999999999563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1">
+        <v>51.275399999999998</v>
+      </c>
+      <c r="C51">
+        <v>2973.761</v>
+      </c>
+      <c r="D51">
+        <v>2989.7979999999998</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>16.036999999999807</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51.820700000000002</v>
+      </c>
+      <c r="C52">
+        <v>3032.07</v>
+      </c>
+      <c r="D52">
+        <v>3021.7260000000001</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>-10.344000000000051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52.966000000000001</v>
+      </c>
+      <c r="C53">
+        <v>3090.3789999999999</v>
+      </c>
+      <c r="D53">
+        <v>3088.3339999999998</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>-2.0450000000000728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53.536799999999999</v>
+      </c>
+      <c r="C54">
+        <v>3148.6880000000001</v>
+      </c>
+      <c r="D54">
+        <v>3131.5970000000002</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>-17.090999999999894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1">
+        <v>54.506700000000002</v>
+      </c>
+      <c r="C55">
+        <v>3206.9969999999998</v>
+      </c>
+      <c r="D55">
+        <v>3178.1529999999998</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>-28.844000000000051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1">
+        <v>55.592799999999997</v>
+      </c>
+      <c r="C56">
+        <v>3265.306</v>
+      </c>
+      <c r="D56">
+        <v>3241.2660000000001</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>-24.039999999999964</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56.952399999999997</v>
+      </c>
+      <c r="C57">
+        <v>3323.6149999999998</v>
+      </c>
+      <c r="D57">
+        <v>3320.7489999999998</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>-2.8659999999999854</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1">
+        <v>58.304699999999997</v>
+      </c>
+      <c r="C58">
+        <v>3381.924</v>
+      </c>
+      <c r="D58">
+        <v>3399.4369999999999</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>17.51299999999992</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1">
+        <v>59.164999999999999</v>
+      </c>
+      <c r="C59">
+        <v>3440.2330000000002</v>
+      </c>
+      <c r="D59">
+        <v>3449.598</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>9.3649999999997817</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1">
+        <v>60.410400000000003</v>
+      </c>
+      <c r="C60">
+        <v>3498.5419999999999</v>
+      </c>
+      <c r="D60">
+        <v>3522.3150000000001</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>23.773000000000138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2">
+        <v>60.209699999999998</v>
+      </c>
+      <c r="C61">
+        <v>3556.8510000000001</v>
+      </c>
+      <c r="D61">
+        <v>3510.8670000000002</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>-45.983999999999924</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61.741100000000003</v>
+      </c>
+      <c r="C62">
+        <v>3615.16</v>
+      </c>
+      <c r="D62">
+        <v>3599.7310000000002</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>-15.428999999999633</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1">
+        <v>62.809199999999997</v>
+      </c>
+      <c r="C63">
+        <v>3673.4690000000001</v>
+      </c>
+      <c r="D63">
+        <v>3662.0830000000001</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>-11.385999999999967</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1">
+        <v>64.009900000000002</v>
+      </c>
+      <c r="C64">
+        <v>3731.7779999999998</v>
+      </c>
+      <c r="D64">
+        <v>3732.2640000000001</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>0.48600000000033106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2">
+        <v>63.725099999999998</v>
+      </c>
+      <c r="C65">
+        <v>3790.087</v>
+      </c>
+      <c r="D65">
+        <v>3715.6370000000002</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>-74.449999999999818</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1">
+        <v>65.637699999999995</v>
+      </c>
+      <c r="C66">
+        <v>3848.3969999999999</v>
+      </c>
+      <c r="D66">
+        <v>3827.393</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>-21.003999999999905</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66.540800000000004</v>
+      </c>
+      <c r="C67">
+        <v>3906.7060000000001</v>
+      </c>
+      <c r="D67">
+        <v>3880.029</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>-26.677000000000135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1">
+        <v>68.075599999999994</v>
+      </c>
+      <c r="C68">
+        <v>3965.0149999999999</v>
+      </c>
+      <c r="D68">
+        <v>3969.7339999999999</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="0"/>
+        <v>4.7190000000000509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1">
+        <v>69.304900000000004</v>
+      </c>
+      <c r="C69">
+        <v>4023.3240000000001</v>
+      </c>
+      <c r="D69">
+        <v>4041.241</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="0"/>
+        <v>17.916999999999916</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1">
+        <v>70.388000000000005</v>
+      </c>
+      <c r="C70">
+        <v>4081.6329999999998</v>
+      </c>
+      <c r="D70">
+        <v>4104.1719999999996</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:E80" si="1">D70-C70</f>
+        <v>22.53899999999976</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2">
+        <v>71.697400000000002</v>
+      </c>
+      <c r="C71">
+        <v>4139.942</v>
+      </c>
+      <c r="D71">
+        <v>4180.1459999999997</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>40.203999999999724</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1">
+        <v>71.869900000000001</v>
+      </c>
+      <c r="C72">
+        <v>4198.2510000000002</v>
+      </c>
+      <c r="D72">
+        <v>4190.7870000000003</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>-7.4639999999999418</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1">
+        <v>73.260900000000007</v>
+      </c>
+      <c r="C73">
+        <v>4256.5600000000004</v>
+      </c>
+      <c r="D73">
+        <v>4271.4279999999999</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>14.867999999999483</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1">
+        <v>74.005799999999994</v>
+      </c>
+      <c r="C74">
+        <v>4314.8689999999997</v>
+      </c>
+      <c r="D74">
+        <v>4315.9520000000002</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>1.0830000000005384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" s="1">
+        <v>74.731700000000004</v>
+      </c>
+      <c r="C75">
+        <v>4373.1779999999999</v>
+      </c>
+      <c r="D75">
+        <v>4357.5050000000001</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>-15.672999999999774</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2">
+        <v>75.3001</v>
+      </c>
+      <c r="C76">
+        <v>4431.4870000000001</v>
+      </c>
+      <c r="D76">
+        <v>4390.5870000000004</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>-40.899999999999636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1">
+        <v>76.591099999999997</v>
+      </c>
+      <c r="C77">
+        <v>4489.7960000000003</v>
+      </c>
+      <c r="D77">
+        <v>4465.54</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>-24.256000000000313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2">
+        <v>78.857100000000003</v>
+      </c>
+      <c r="C78">
+        <v>4548.1049999999996</v>
+      </c>
+      <c r="D78">
+        <v>4597.951</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>49.846000000000458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2">
+        <v>80.094899999999996</v>
+      </c>
+      <c r="C79">
+        <v>4606.4139999999998</v>
+      </c>
+      <c r="D79">
+        <v>4670.683</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>64.269000000000233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" s="1">
+        <v>79.575500000000005</v>
+      </c>
+      <c r="C80">
+        <v>4664.723</v>
+      </c>
+      <c r="D80">
+        <v>4639.7449999999999</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>-24.978000000000065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/50kHz measurments.xlsx
+++ b/50kHz measurments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmall1\Documents\GitHub\PROJ324_SK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiera\Documents\GitHub\PROJ324_SK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2845CF-8169-4306-B237-7379EF127A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780CB8F2-9EA1-407C-96B2-6EECAFEE39AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
   </bookViews>
@@ -23,6 +23,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3030,6 +3041,19 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3153,6 +3177,19 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3304,6 +3341,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -16991,15 +17029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
+      <xdr:colOff>309561</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17025,6 +17063,517 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2409</cdr:x>
+      <cdr:y>0.05799</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.2419</cdr:x>
+      <cdr:y>0.98779</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3E167A-9F44-28BD-D94A-9199BBCFB722}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2300289" y="271464"/>
+          <a:ext cx="9525" cy="4352925"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63973</cdr:x>
+      <cdr:y>0.06172</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64073</cdr:x>
+      <cdr:y>0.99152</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795861CF-B037-B569-A7FE-1D9BD0F58DAB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6108700" y="288925"/>
+          <a:ext cx="9525" cy="4352925"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.36941</cdr:x>
+      <cdr:y>0.06172</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37041</cdr:x>
+      <cdr:y>0.99152</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795861CF-B037-B569-A7FE-1D9BD0F58DAB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3527425" y="288925"/>
+          <a:ext cx="9525" cy="4352925"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12219</cdr:x>
+      <cdr:y>0.0824</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.17107</cdr:x>
+      <cdr:y>0.13733</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2F8412-D0F7-B02A-698F-B02F9C279DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1166814" y="385764"/>
+          <a:ext cx="466725" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>-250</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79634</cdr:x>
+      <cdr:y>0.08613</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84522</cdr:x>
+      <cdr:y>0.14106</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E48EC37-AE4F-DB5B-557B-5112376F4547}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7604125" y="403225"/>
+          <a:ext cx="466725" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>-400</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48013</cdr:x>
+      <cdr:y>0.08613</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.52901</cdr:x>
+      <cdr:y>0.14106</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E48EC37-AE4F-DB5B-557B-5112376F4547}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4584700" y="403225"/>
+          <a:ext cx="466725" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>-350</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.28662</cdr:x>
+      <cdr:y>0.0841</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.33549</cdr:x>
+      <cdr:y>0.13903</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E48EC37-AE4F-DB5B-557B-5112376F4547}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2736850" y="393700"/>
+          <a:ext cx="466725" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>-300</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21414,8 +21963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8D9150-10E7-4342-83C2-EC0FE8E58F08}">
   <dimension ref="A3:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/50kHz measurments.xlsx
+++ b/50kHz measurments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiera\Documents\GitHub\PROJ324_SK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmall1\Documents\GitHub\PROJ324_SK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780CB8F2-9EA1-407C-96B2-6EECAFEE39AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D05CF8-F1A0-4F54-A8E0-84097E2F9D1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{49929126-E106-4BA5-BBBE-362DD2DFA756}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>1cm is 58.309</t>
   </si>
@@ -71,12 +60,15 @@
   <si>
     <t>88% correct</t>
   </si>
+  <si>
+    <t>Distance error in us with a variable reference voltage set as the amplified inverse of the rectified signal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +87,14 @@
       <color rgb="FF9C0006"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -129,10 +129,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -7364,14 +7367,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Distance</a:t>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Graph Showing Measured Distance Compared to Actual Distance Using 50kHz transducers</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> error in us with a variable reference voltage set as the amplified inverse of the rectified signal</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7379,8 +7382,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11561367103480295"/>
-          <c:y val="0"/>
+          <c:x val="0.10492063492063491"/>
+          <c:y val="4.9042133757592844E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7519,66 +7522,66 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$5:$M$23</c:f>
+              <c:f>Sheet2!$N$5:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>216.53699999999998</c:v>
+                  <c:v>8.7136063000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250.25400000000002</c:v>
+                  <c:v>14.291849600000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.29200000000014</c:v>
+                  <c:v>19.686965200000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>317.12099999999987</c:v>
+                  <c:v>25.438629299999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>321.51499999999987</c:v>
+                  <c:v>30.513983149999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>305.85900000000015</c:v>
+                  <c:v>35.245479500000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>315.85099999999989</c:v>
+                  <c:v>40.41683905</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>333.5659999999998</c:v>
+                  <c:v>45.720665199999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>350.10399999999981</c:v>
+                  <c:v>51.004288650000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>319.779</c:v>
+                  <c:v>55.484211650000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>382.53700000000026</c:v>
+                  <c:v>61.560508100000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>392.80200000000013</c:v>
+                  <c:v>66.736549600000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>358.00300000000016</c:v>
+                  <c:v>71.139743500000009</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>370.48100000000022</c:v>
+                  <c:v>76.345694600000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>414.05199999999968</c:v>
+                  <c:v>82.101011650000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>374.21200000000044</c:v>
+                  <c:v>86.417735250000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>342.58200000000033</c:v>
+                  <c:v>90.87527750000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>362.73199999999997</c:v>
+                  <c:v>101.22086065000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7641,6 +7644,14 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ACTUAL</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
                 <a:r>
                   <a:rPr lang="en-GB"/>
                   <a:t>Distance (cm)</a:t>
@@ -7768,11 +7779,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>distnace</a:t>
+                  <a:t>Measured</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> error (us)</a:t>
+                  <a:t> distancwe (CM)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -16514,16 +16525,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17875,7 +17886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7288C5F0-AF61-4E26-9BFE-C4E1DAB9DA45}">
   <dimension ref="A2:V47"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
@@ -18895,7 +18906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30EFE3F-6A59-4783-AA79-CB31DEB1F652}">
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -19156,10 +19167,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A581574-D065-4677-A136-CE1820FEC8BC}">
-  <dimension ref="A5:M103"/>
+  <dimension ref="A5:Z103"/>
   <sheetViews>
-    <sheetView topLeftCell="C62" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:J103"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19168,7 +19179,7 @@
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>291.54500000000002</v>
       </c>
@@ -19202,8 +19213,12 @@
         <f>L5-I5</f>
         <v>216.53699999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f>((L5*343)/2)*0.0001</f>
+        <v>8.7136063000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>349.85399999999998</v>
       </c>
@@ -19237,8 +19252,12 @@
         <f t="shared" ref="M6:M16" si="2">L6-I6</f>
         <v>250.25400000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f t="shared" ref="N6:N23" si="3">((L6*343)/2)*0.0001</f>
+        <v>14.291849600000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>408.16300000000001</v>
       </c>
@@ -19272,8 +19291,12 @@
         <f t="shared" si="2"/>
         <v>273.29200000000014</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>19.686965200000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>466.47199999999998</v>
       </c>
@@ -19307,8 +19330,12 @@
         <f t="shared" si="2"/>
         <v>317.12099999999987</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>25.438629299999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>524.78099999999995</v>
       </c>
@@ -19342,8 +19369,12 @@
         <f t="shared" si="2"/>
         <v>321.51499999999987</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>30.513983149999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>583.09</v>
       </c>
@@ -19384,8 +19415,12 @@
         <f t="shared" si="2"/>
         <v>305.85900000000015</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>35.245479500000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>641.399</v>
       </c>
@@ -19403,7 +19438,7 @@
         <v>857.91</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F50" si="3">E11-A11</f>
+        <f t="shared" ref="F11:F50" si="4">E11-A11</f>
         <v>216.51099999999997</v>
       </c>
       <c r="H11">
@@ -19426,8 +19461,12 @@
         <f t="shared" si="2"/>
         <v>315.85099999999989</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>40.41683905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>699.70799999999997</v>
       </c>
@@ -19445,7 +19484,7 @@
         <v>930.92</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>231.21199999999999</v>
       </c>
       <c r="H12">
@@ -19468,8 +19507,12 @@
         <f t="shared" si="2"/>
         <v>333.5659999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>45.720665199999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>758.01700000000005</v>
       </c>
@@ -19487,7 +19530,7 @@
         <v>998.04</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>240.02299999999991</v>
       </c>
       <c r="H13">
@@ -19510,8 +19553,12 @@
         <f t="shared" si="2"/>
         <v>350.10399999999981</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>51.004288650000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>816.327</v>
       </c>
@@ -19529,7 +19576,7 @@
         <v>1060.576</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>244.24900000000002</v>
       </c>
       <c r="H14">
@@ -19552,8 +19599,12 @@
         <f t="shared" si="2"/>
         <v>319.779</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>55.484211650000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>874.63599999999997</v>
       </c>
@@ -19571,7 +19622,7 @@
         <v>1119.93</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>245.2940000000001</v>
       </c>
       <c r="H15">
@@ -19594,8 +19645,12 @@
         <f t="shared" si="2"/>
         <v>382.53700000000026</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>61.560508100000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>932.94500000000005</v>
       </c>
@@ -19613,7 +19668,7 @@
         <v>1155.1110000000001</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>222.16600000000005</v>
       </c>
       <c r="H16">
@@ -19636,8 +19691,12 @@
         <f t="shared" si="2"/>
         <v>392.80200000000013</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>66.736549600000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>991.25400000000002</v>
       </c>
@@ -19655,7 +19714,7 @@
         <v>1196.798</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>205.54399999999998</v>
       </c>
       <c r="H17">
@@ -19678,8 +19737,12 @@
         <f>L17-I17</f>
         <v>358.00300000000016</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>71.139743500000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1049.5630000000001</v>
       </c>
@@ -19697,7 +19760,7 @@
         <v>1268.2919999999999</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>218.72899999999981</v>
       </c>
       <c r="H18">
@@ -19714,11 +19777,15 @@
         <v>4451.6440000000002</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M23" si="4">L18-I18</f>
+        <f t="shared" ref="M18:M23" si="5">L18-I18</f>
         <v>370.48100000000022</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>76.345694600000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1107.8720000000001</v>
       </c>
@@ -19736,7 +19803,7 @@
         <v>1323.758</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>215.88599999999997</v>
       </c>
       <c r="H19">
@@ -19749,11 +19816,15 @@
         <v>4787.2309999999998</v>
       </c>
       <c r="M19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>414.05199999999968</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>82.101011650000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1166.181</v>
       </c>
@@ -19771,7 +19842,7 @@
         <v>1418.777</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>252.596</v>
       </c>
       <c r="H20">
@@ -19784,11 +19855,15 @@
         <v>5038.9350000000004</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>374.21200000000044</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>86.417735250000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1224.49</v>
       </c>
@@ -19806,7 +19881,7 @@
         <v>1474.5650000000001</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>250.07500000000005</v>
       </c>
       <c r="H21">
@@ -19819,11 +19894,15 @@
         <v>5298.85</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>342.58200000000033</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>90.87527750000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1282.799</v>
       </c>
@@ -19841,15 +19920,19 @@
         <v>1568.586</v>
       </c>
       <c r="F22">
+        <f t="shared" si="4"/>
+        <v>285.78700000000003</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="3"/>
-        <v>285.78700000000003</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1341.1079999999999</v>
       </c>
@@ -19867,7 +19950,7 @@
         <v>1639.94</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>298.83200000000011</v>
       </c>
       <c r="H23">
@@ -19880,11 +19963,15 @@
         <v>5902.0910000000003</v>
       </c>
       <c r="M23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>362.73199999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>101.22086065000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1399.4169999999999</v>
       </c>
@@ -19902,7 +19989,7 @@
         <v>1704.5150000000001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>305.09800000000018</v>
       </c>
       <c r="L24">
@@ -19914,7 +20001,7 @@
         <v>315.85678947368427</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1457.7260000000001</v>
       </c>
@@ -19932,11 +20019,14 @@
         <v>1773.2639999999999</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>315.53799999999978</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Z25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1516.0350000000001</v>
       </c>
@@ -19954,14 +20044,14 @@
         <v>1817.5250000000001</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>301.49</v>
       </c>
       <c r="H26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1574.3440000000001</v>
       </c>
@@ -19979,7 +20069,7 @@
         <v>1874.587</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300.24299999999994</v>
       </c>
       <c r="G27" t="s">
@@ -19989,7 +20079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1632.653</v>
       </c>
@@ -20007,7 +20097,7 @@
         <v>1911.2529999999999</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>278.59999999999991</v>
       </c>
       <c r="G28" s="1">
@@ -20027,7 +20117,7 @@
         <v>4.978999999999985</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1690.962</v>
       </c>
@@ -20045,7 +20135,7 @@
         <v>1954.374</v>
       </c>
       <c r="F29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>263.41200000000003</v>
       </c>
       <c r="G29" s="1">
@@ -20061,11 +20151,11 @@
         <v>349.85399999999998</v>
       </c>
       <c r="K29">
-        <f t="shared" ref="K29:K92" si="5">I29-J29</f>
+        <f t="shared" ref="K29:K92" si="6">I29-J29</f>
         <v>-17.358000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1749.271</v>
       </c>
@@ -20083,7 +20173,7 @@
         <v>2033.759</v>
       </c>
       <c r="F30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>284.48800000000006</v>
       </c>
       <c r="G30" s="1">
@@ -20099,11 +20189,11 @@
         <v>408.16300000000001</v>
       </c>
       <c r="K30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-68.607000000000028</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1807.58</v>
       </c>
@@ -20121,7 +20211,7 @@
         <v>2091.7370000000001</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>284.15700000000015</v>
       </c>
       <c r="G31" s="1">
@@ -20137,11 +20227,11 @@
         <v>466.47199999999998</v>
       </c>
       <c r="K31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9.0269999999999868</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1865.8889999999999</v>
       </c>
@@ -20159,7 +20249,7 @@
         <v>2186.4340000000002</v>
       </c>
       <c r="F32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>320.5450000000003</v>
       </c>
       <c r="G32" s="1">
@@ -20175,7 +20265,7 @@
         <v>524.78099999999995</v>
       </c>
       <c r="K32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.5899999999999181</v>
       </c>
     </row>
@@ -20197,7 +20287,7 @@
         <v>2267.799</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>343.60099999999989</v>
       </c>
       <c r="G33" s="1">
@@ -20213,7 +20303,7 @@
         <v>583.09</v>
       </c>
       <c r="K33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.32299999999997908</v>
       </c>
     </row>
@@ -20235,7 +20325,7 @@
         <v>2346.9789999999998</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>364.47199999999975</v>
       </c>
       <c r="G34" s="1">
@@ -20251,7 +20341,7 @@
         <v>641.399</v>
       </c>
       <c r="K34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.662000000000035</v>
       </c>
     </row>
@@ -20273,7 +20363,7 @@
         <v>2425.759</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>384.94299999999998</v>
       </c>
       <c r="G35" s="2">
@@ -20289,7 +20379,7 @@
         <v>699.70799999999997</v>
       </c>
       <c r="K35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.798000000000002</v>
       </c>
     </row>
@@ -20311,7 +20401,7 @@
         <v>2448.9490000000001</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>349.82400000000007</v>
       </c>
       <c r="G36" s="2">
@@ -20327,7 +20417,7 @@
         <v>758.01700000000005</v>
       </c>
       <c r="K36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-86.776000000000067</v>
       </c>
     </row>
@@ -20349,7 +20439,7 @@
         <v>2480.98</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>323.54599999999982</v>
       </c>
       <c r="G37" s="2">
@@ -20365,7 +20455,7 @@
         <v>816.327</v>
       </c>
       <c r="K37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-81.427000000000021</v>
       </c>
     </row>
@@ -20387,7 +20477,7 @@
         <v>2521.2939999999999</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>305.55099999999993</v>
       </c>
       <c r="G38" s="2">
@@ -20403,7 +20493,7 @@
         <v>874.63599999999997</v>
       </c>
       <c r="K38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-81.192999999999984</v>
       </c>
     </row>
@@ -20425,7 +20515,7 @@
         <v>2590.4650000000001</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>316.41300000000001</v>
       </c>
       <c r="G39" s="2">
@@ -20441,7 +20531,7 @@
         <v>932.94500000000005</v>
       </c>
       <c r="K39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-79.107000000000085</v>
       </c>
     </row>
@@ -20463,7 +20553,7 @@
         <v>2640.1909999999998</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>307.82899999999972</v>
       </c>
       <c r="G40" s="2">
@@ -20479,7 +20569,7 @@
         <v>991.25400000000002</v>
       </c>
       <c r="K40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-66.77800000000002</v>
       </c>
     </row>
@@ -20501,7 +20591,7 @@
         <v>2710.616</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>319.94500000000016</v>
       </c>
       <c r="G41" s="2">
@@ -20517,7 +20607,7 @@
         <v>1049.5630000000001</v>
       </c>
       <c r="K41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-60.896000000000072</v>
       </c>
     </row>
@@ -20539,7 +20629,7 @@
         <v>2763.4740000000002</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>314.49400000000014</v>
       </c>
       <c r="G42" s="2">
@@ -20555,7 +20645,7 @@
         <v>1107.8720000000001</v>
       </c>
       <c r="K42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-60.641000000000076</v>
       </c>
     </row>
@@ -20577,7 +20667,7 @@
         <v>2845.0210000000002</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>337.73199999999997</v>
       </c>
       <c r="G43" s="2">
@@ -20593,7 +20683,7 @@
         <v>1166.181</v>
       </c>
       <c r="K43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-58.970000000000027</v>
       </c>
     </row>
@@ -20615,7 +20705,7 @@
         <v>2930.0509999999999</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>364.45299999999997</v>
       </c>
       <c r="G44" s="2">
@@ -20631,7 +20721,7 @@
         <v>1224.49</v>
       </c>
       <c r="K44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-47.529999999999973</v>
       </c>
     </row>
@@ -20650,7 +20740,7 @@
         <v>3050.4340000000002</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>426.52700000000004</v>
       </c>
       <c r="G45" s="2">
@@ -20666,7 +20756,7 @@
         <v>1282.799</v>
       </c>
       <c r="K45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-58.244999999999891</v>
       </c>
     </row>
@@ -20681,7 +20771,7 @@
         <v>3280.0010000000002</v>
       </c>
       <c r="F46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>364.54899999999998</v>
       </c>
       <c r="G46" s="2">
@@ -20697,7 +20787,7 @@
         <v>1341.1079999999999</v>
       </c>
       <c r="K46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-73.594000000000051</v>
       </c>
     </row>
@@ -20712,7 +20802,7 @@
         <v>3565.1909999999998</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>358.19399999999996</v>
       </c>
       <c r="G47" s="2">
@@ -20728,7 +20818,7 @@
         <v>1399.4169999999999</v>
       </c>
       <c r="K47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-45.701000000000022</v>
       </c>
     </row>
@@ -20743,7 +20833,7 @@
         <v>3884.2820000000002</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>385.74000000000024</v>
       </c>
       <c r="G48" s="2">
@@ -20759,7 +20849,7 @@
         <v>1457.7260000000001</v>
       </c>
       <c r="K48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-51.685000000000173</v>
       </c>
     </row>
@@ -20774,7 +20864,7 @@
         <v>4165.6670000000004</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>375.58000000000038</v>
       </c>
       <c r="G49" s="1">
@@ -20790,7 +20880,7 @@
         <v>1516.0350000000001</v>
       </c>
       <c r="K49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.358000000000175</v>
       </c>
     </row>
@@ -20805,7 +20895,7 @@
         <v>4498.4449999999997</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>416.8119999999999</v>
       </c>
       <c r="G50" s="2">
@@ -20821,7 +20911,7 @@
         <v>1574.3440000000001</v>
       </c>
       <c r="K50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-34.919000000000096</v>
       </c>
     </row>
@@ -20843,7 +20933,7 @@
         <v>1632.653</v>
       </c>
       <c r="K51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-23.653999999999996</v>
       </c>
     </row>
@@ -20861,7 +20951,7 @@
         <v>1690.962</v>
       </c>
       <c r="K52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-23.204999999999927</v>
       </c>
     </row>
@@ -20879,7 +20969,7 @@
         <v>1749.271</v>
       </c>
       <c r="K53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-14.683999999999969</v>
       </c>
     </row>
@@ -20897,7 +20987,7 @@
         <v>1807.58</v>
       </c>
       <c r="K54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-10.406999999999925</v>
       </c>
     </row>
@@ -20915,7 +21005,7 @@
         <v>1865.8889999999999</v>
       </c>
       <c r="K55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-28.049999999999955</v>
       </c>
     </row>
@@ -20936,7 +21026,7 @@
         <v>1924.1980000000001</v>
       </c>
       <c r="K56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-30.876000000000204</v>
       </c>
     </row>
@@ -20954,7 +21044,7 @@
         <v>1982.5070000000001</v>
       </c>
       <c r="K57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-38.336999999999989</v>
       </c>
     </row>
@@ -20972,7 +21062,7 @@
         <v>2040.816</v>
       </c>
       <c r="K58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-18.227000000000089</v>
       </c>
     </row>
@@ -20990,7 +21080,7 @@
         <v>2099.125</v>
       </c>
       <c r="K59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5039999999999054</v>
       </c>
     </row>
@@ -21008,7 +21098,7 @@
         <v>2157.4340000000002</v>
       </c>
       <c r="K60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.071999999999662</v>
       </c>
     </row>
@@ -21026,7 +21116,7 @@
         <v>2215.7429999999999</v>
       </c>
       <c r="K61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.2869999999998072</v>
       </c>
     </row>
@@ -21044,7 +21134,7 @@
         <v>2274.0520000000001</v>
       </c>
       <c r="K62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.905999999999949</v>
       </c>
     </row>
@@ -21062,7 +21152,7 @@
         <v>2332.3620000000001</v>
       </c>
       <c r="K63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1140000000000327</v>
       </c>
     </row>
@@ -21080,7 +21170,7 @@
         <v>2390.6709999999998</v>
       </c>
       <c r="K64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-17.627999999999702</v>
       </c>
     </row>
@@ -21098,7 +21188,7 @@
         <v>2448.98</v>
       </c>
       <c r="K65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.0500000000001819</v>
       </c>
     </row>
@@ -21116,7 +21206,7 @@
         <v>2507.2890000000002</v>
       </c>
       <c r="K66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-27.581000000000131</v>
       </c>
     </row>
@@ -21134,7 +21224,7 @@
         <v>2565.598</v>
       </c>
       <c r="K67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9.7199999999997999</v>
       </c>
     </row>
@@ -21152,7 +21242,7 @@
         <v>2623.9070000000002</v>
       </c>
       <c r="K68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-7.2400000000002365</v>
       </c>
     </row>
@@ -21170,7 +21260,7 @@
         <v>2692.2159999999999</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9259999999999309</v>
       </c>
     </row>
@@ -21188,7 +21278,7 @@
         <v>2740.5250000000001</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-10.84900000000016</v>
       </c>
     </row>
@@ -21206,7 +21296,7 @@
         <v>2798.8339999999998</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18.801000000000386</v>
       </c>
     </row>
@@ -21224,7 +21314,7 @@
         <v>2857.143</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.37699999999995271</v>
       </c>
     </row>
@@ -21242,7 +21332,7 @@
         <v>2915.4520000000002</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-43.199000000000069</v>
       </c>
     </row>
@@ -21260,7 +21350,7 @@
         <v>2973.761</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-47.103999999999814</v>
       </c>
     </row>
@@ -21278,7 +21368,7 @@
         <v>3032.07</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-43.796000000000276</v>
       </c>
     </row>
@@ -21296,7 +21386,7 @@
         <v>3090.3789999999999</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-36.601000000000113</v>
       </c>
     </row>
@@ -21314,7 +21404,7 @@
         <v>3148.6880000000001</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-15.63799999999992</v>
       </c>
     </row>
@@ -21332,7 +21422,7 @@
         <v>3206.9969999999998</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-30.967999999999847</v>
       </c>
     </row>
@@ -21350,7 +21440,7 @@
         <v>3265.306</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.943000000000211</v>
       </c>
     </row>
@@ -21368,7 +21458,7 @@
         <v>3323.6149999999998</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4770000000003165</v>
       </c>
     </row>
@@ -21386,7 +21476,7 @@
         <v>3381.924</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.9090000000001055</v>
       </c>
     </row>
@@ -21404,7 +21494,7 @@
         <v>3440.2330000000002</v>
       </c>
       <c r="K82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-21.33600000000024</v>
       </c>
     </row>
@@ -21422,7 +21512,7 @@
         <v>3498.5419999999999</v>
       </c>
       <c r="K83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.525000000000091</v>
       </c>
     </row>
@@ -21440,7 +21530,7 @@
         <v>3556.8510000000001</v>
       </c>
       <c r="K84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-35.327000000000226</v>
       </c>
     </row>
@@ -21458,7 +21548,7 @@
         <v>3615.16</v>
       </c>
       <c r="K85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-24.532999999999902</v>
       </c>
     </row>
@@ -21476,7 +21566,7 @@
         <v>3673.4690000000001</v>
       </c>
       <c r="K86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-19.539000000000215</v>
       </c>
     </row>
@@ -21494,7 +21584,7 @@
         <v>3731.7779999999998</v>
       </c>
       <c r="K87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-21.445999999999913</v>
       </c>
     </row>
@@ -21512,7 +21602,7 @@
         <v>3790.087</v>
       </c>
       <c r="K88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.164000000000215</v>
       </c>
     </row>
@@ -21530,7 +21620,7 @@
         <v>3848.3969999999999</v>
       </c>
       <c r="K89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30099999999993088</v>
       </c>
     </row>
@@ -21548,7 +21638,7 @@
         <v>3906.7060000000001</v>
       </c>
       <c r="K90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8219999999996617</v>
       </c>
     </row>
@@ -21566,7 +21656,7 @@
         <v>3965.0149999999999</v>
       </c>
       <c r="K91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-22.409999999999854</v>
       </c>
     </row>
@@ -21584,7 +21674,7 @@
         <v>4023.3240000000001</v>
       </c>
       <c r="K92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-61.751999999999953</v>
       </c>
     </row>
@@ -21602,7 +21692,7 @@
         <v>4081.6329999999998</v>
       </c>
       <c r="K93">
-        <f t="shared" ref="K93:K103" si="6">I93-J93</f>
+        <f t="shared" ref="K93:K103" si="7">I93-J93</f>
         <v>-12.349999999999909</v>
       </c>
     </row>
@@ -21620,7 +21710,7 @@
         <v>4139.942</v>
       </c>
       <c r="K94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.8500000000003638</v>
       </c>
     </row>
@@ -21638,7 +21728,7 @@
         <v>4198.2510000000002</v>
       </c>
       <c r="K95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.09900000000016</v>
       </c>
     </row>
@@ -21656,7 +21746,7 @@
         <v>4256.5600000000004</v>
       </c>
       <c r="K96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46.188999999999396</v>
       </c>
     </row>
@@ -21674,7 +21764,7 @@
         <v>4314.8689999999997</v>
       </c>
       <c r="K97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.38300000000072</v>
       </c>
     </row>
@@ -21692,7 +21782,7 @@
         <v>4373.1779999999999</v>
       </c>
       <c r="K98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.287000000000262</v>
       </c>
     </row>
@@ -21710,7 +21800,7 @@
         <v>4431.4870000000001</v>
       </c>
       <c r="K99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.462999999999738</v>
       </c>
     </row>
@@ -21728,7 +21818,7 @@
         <v>4489.7960000000003</v>
       </c>
       <c r="K100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40.962999999999738</v>
       </c>
     </row>
@@ -21746,7 +21836,7 @@
         <v>4548.1049999999996</v>
       </c>
       <c r="K101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-29.427999999999884</v>
       </c>
     </row>
@@ -21776,7 +21866,7 @@
         <v>4664.723</v>
       </c>
       <c r="K103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-25.929000000000087</v>
       </c>
     </row>
@@ -21963,7 +22053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8D9150-10E7-4342-83C2-EC0FE8E58F08}">
   <dimension ref="A3:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
